--- a/01_document/画面定義書.xlsx
+++ b/01_document/画面定義書.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papa\01.equinix\11.hakkason\2018\05.develop\mobile-app-hackathon2018\01.document\01.設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papa\00.default\01.develop\GGBB\01_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="5" r:id="rId1"/>
-    <sheet name="お小遣い一覧画面(画面)" sheetId="1" r:id="rId2"/>
-    <sheet name="お小遣い登録画面" sheetId="6" r:id="rId3"/>
-    <sheet name="おねだり登録画面" sheetId="7" r:id="rId4"/>
-    <sheet name="おこずかい交換画面" sheetId="8" r:id="rId5"/>
+    <sheet name="メイン画面" sheetId="9" r:id="rId2"/>
+    <sheet name="お小遣い一覧画面(画面)" sheetId="1" r:id="rId3"/>
+    <sheet name="お小遣い登録画面" sheetId="6" r:id="rId4"/>
+    <sheet name="おねだり登録画面" sheetId="7" r:id="rId5"/>
     <sheet name="XXX画面(項目定義)" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="117">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -239,10 +239,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>itemName</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -266,10 +262,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>かず</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ひにち</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -282,22 +274,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>おなまえ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ろぐいん</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>はいる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>じゅもん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>きょうこれした</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -335,34 +315,6 @@
   </si>
   <si>
     <t>プレステ４</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>けんちゃん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>かとちゃん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>よしこちゃん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ふるふる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あげる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あげるおともだち</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -398,10 +350,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>しょうにん</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -484,47 +432,9 @@
     <t>https://item.rakuten.co.jp/akindo/cuh-2100bb01/</t>
   </si>
   <si>
-    <t>おこずかいのこうかん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>おとうさん買って</t>
     <rPh sb="5" eb="6">
       <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ごおるど：勉強のジャンル</t>
-    <rPh sb="5" eb="7">
-      <t>ベンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しるばあ：運動のジャンル</t>
-    <rPh sb="5" eb="7">
-      <t>ウンドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ぶろんず：お手伝いのジャンル</t>
-    <rPh sb="6" eb="8">
-      <t>テツダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仮想通貨の分類</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツウカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ブンルイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -593,98 +503,154 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ごーるど</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しるばー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ぶろんず</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いまもっているお金</t>
+    <t>きょうなにした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうなにした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうなにした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おねだり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おねだり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おねだりせいこうまであと　90ごおるど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>季節の広告2</t>
+    <rPh sb="0" eb="2">
+      <t>キセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バナー広告１</t>
+    <rPh sb="3" eb="5">
+      <t>コウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>季節のバナー広告１</t>
+    <rPh sb="0" eb="2">
+      <t>キセツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆーざID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぱすわーど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じーじばーばおねだりしすてむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いべんと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れんくん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10/1 おゆうぎ会</t>
+    <rPh sb="9" eb="10">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/20 うんどうかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8/1 おたんじょうび</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆいちゃん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZZZZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おとうさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おかあさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おじいちゃん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おばあちゃん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうこれしました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れんくん 5月1日</t>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
     <rPh sb="8" eb="9">
-      <t>カネ</t>
+      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>きょうなにした</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>きょうなにした</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>きょうなにした</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おねだり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おねだり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ふるふるを押したときに友達を表示する。</t>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
+    <t>もくひょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おじいちゃんにおねだり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレステ４　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げんざい10ポイント/3000ポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おばあちゃんにおねだり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>トモダチ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面を開いた時に位置を登録する。</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おねだりせいこうまであと　90ごおるど</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -695,7 +661,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\/m\/d"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,6 +725,32 @@
       <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -944,7 +936,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,9 +1012,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1074,18 +1063,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1134,6 +1111,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1149,30 +1150,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1196,6 +1173,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1250,58 +1260,444 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3649980" cy="4175760"/>
+          <a:off x="220980" y="624840"/>
+          <a:ext cx="259080" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="243840" y="1676400"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="236220" y="2514600"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="243840" y="3017520"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="243840" y="3520440"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="243840" y="4069080"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2682240" y="502920"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7231380" y="449580"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1786,125 +2182,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形吹き出し 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2926080" y="2514600"/>
-          <a:ext cx="1798320" cy="2141220"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -57274"/>
-            <a:gd name="adj2" fmla="val 20343"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>③交換時に</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>内容を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>spa jam</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>用のアカウントにツイートする。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>使用者の名前と</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>相手の名前</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>「めいしょー」</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>「かず」</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2171,17 +2448,17 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="B2:AB24"/>
+  <dimension ref="B2:AA31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AL9" sqref="AL9"/>
+      <selection activeCell="BF16" sqref="BF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2207,10 +2484,9 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="3"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA2" s="3"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2236,10 +2512,9 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="6"/>
-    </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA3" s="6"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -2263,113 +2538,97 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="AB4" s="6"/>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA4" s="6"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="Y5" s="5"/>
-      <c r="AB5" s="6"/>
-    </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA5" s="6"/>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
-      <c r="I6" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="6"/>
-    </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="F7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="6"/>
-    </row>
-    <row r="8" spans="2:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA7" s="6"/>
+    </row>
+    <row r="8" spans="2:27" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="14"/>
-      <c r="I8" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="12"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="15"/>
-    </row>
-    <row r="9" spans="2:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="AA8" s="15"/>
+    </row>
+    <row r="9" spans="2:27" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="14"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="15"/>
-    </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="F9" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+      <c r="AA9" s="15"/>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -2377,275 +2636,2315 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="6"/>
-    </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="AA10" s="6"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="55"/>
-      <c r="AB11" s="6"/>
-    </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="47"/>
+      <c r="AA11" s="6"/>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
-      <c r="AB12" s="6"/>
-    </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="P12" s="48"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="50"/>
+      <c r="AA12" s="6"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
-      <c r="AB13" s="6"/>
-    </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA13" s="6"/>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
+      <c r="AA14" s="6"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="6"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="6"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="6"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="6"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="6"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="6"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="6"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+      <c r="AA22" s="6"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="AA23" s="6"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+      <c r="AA24" s="6"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="AA25" s="6"/>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="AA26" s="6"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="81"/>
+      <c r="AA27" s="6"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="84"/>
+      <c r="AA28" s="6"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
+      <c r="Z29" s="81"/>
+      <c r="AA29" s="6"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="84"/>
+      <c r="AA30" s="6"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="P11:W12"/>
+    <mergeCell ref="C29:N30"/>
+    <mergeCell ref="O29:Z30"/>
+    <mergeCell ref="C27:Z28"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:CE30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:81" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BY2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CA2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CC2" s="3"/>
+    </row>
+    <row r="3" spans="2:81" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="5"/>
+      <c r="BY3" s="5"/>
+      <c r="BZ3" s="5"/>
+      <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="6"/>
+    </row>
+    <row r="4" spans="2:81" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM4" s="5"/>
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="5"/>
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="6"/>
+    </row>
+    <row r="5" spans="2:81" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="5"/>
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="5"/>
+      <c r="BK5" s="5"/>
+      <c r="BL5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM5" s="5"/>
+      <c r="BN5" s="5"/>
+      <c r="BO5" s="5"/>
+      <c r="BP5" s="5"/>
+      <c r="BQ5" s="5"/>
+      <c r="BR5" s="5"/>
+      <c r="BS5" s="5"/>
+      <c r="BT5" s="5"/>
+      <c r="BU5" s="5"/>
+      <c r="BV5" s="5"/>
+      <c r="BW5" s="5"/>
+      <c r="BX5" s="5"/>
+      <c r="BY5" s="5"/>
+      <c r="BZ5" s="5"/>
+      <c r="CA5" s="5"/>
+      <c r="CB5" s="5"/>
+      <c r="CC5" s="6"/>
+    </row>
+    <row r="6" spans="2:81" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="5"/>
+      <c r="BI6" s="5"/>
+      <c r="BJ6" s="5"/>
+      <c r="BK6" s="5"/>
+      <c r="BL6" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM6" s="87"/>
+      <c r="BN6" s="87"/>
+      <c r="BO6" s="87"/>
+      <c r="BP6" s="87"/>
+      <c r="BQ6" s="5"/>
+      <c r="BR6" s="5"/>
+      <c r="BS6" s="5"/>
+      <c r="BT6" s="5"/>
+      <c r="BU6" s="5"/>
+      <c r="BV6" s="5"/>
+      <c r="BW6" s="5"/>
+      <c r="BX6" s="5"/>
+      <c r="BY6" s="5"/>
+      <c r="BZ6" s="5"/>
+      <c r="CA6" s="5"/>
+      <c r="CB6" s="5"/>
+      <c r="CC6" s="6"/>
+    </row>
+    <row r="7" spans="2:81" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="5"/>
+      <c r="BL7" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="BM7" s="5"/>
+      <c r="BN7" s="5"/>
+      <c r="BO7" s="5"/>
+      <c r="BP7" s="5"/>
+      <c r="BQ7" s="5"/>
+      <c r="BR7" s="5"/>
+      <c r="BS7" s="5"/>
+      <c r="BT7" s="5"/>
+      <c r="BU7" s="5"/>
+      <c r="BV7" s="5"/>
+      <c r="BW7" s="5"/>
+      <c r="BX7" s="5"/>
+      <c r="BY7" s="5"/>
+      <c r="BZ7" s="5"/>
+      <c r="CA7" s="5"/>
+      <c r="CB7" s="5"/>
+      <c r="CC7" s="6"/>
+    </row>
+    <row r="8" spans="2:81" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="14"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="85"/>
+      <c r="AE8" s="85"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="85"/>
+      <c r="AI8" s="85"/>
+      <c r="AJ8" s="85"/>
+      <c r="AK8" s="85"/>
+      <c r="AL8" s="85"/>
+      <c r="AM8" s="85"/>
+      <c r="AN8" s="85"/>
+      <c r="AO8" s="85"/>
+      <c r="AP8" s="85"/>
+      <c r="AQ8" s="85"/>
+      <c r="AR8" s="85"/>
+      <c r="AS8" s="85"/>
+      <c r="AT8" s="85"/>
+      <c r="AU8" s="85"/>
+      <c r="AV8" s="85"/>
+      <c r="AW8" s="85"/>
+      <c r="AX8" s="85"/>
+      <c r="AY8" s="85"/>
+      <c r="AZ8" s="85"/>
+      <c r="BA8" s="85"/>
+      <c r="BB8" s="85"/>
+      <c r="BC8" s="85"/>
+      <c r="BD8" s="85"/>
+      <c r="BE8" s="85"/>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="85"/>
+      <c r="BI8" s="85"/>
+      <c r="BJ8" s="85"/>
+      <c r="BK8" s="85"/>
+      <c r="BL8" s="85"/>
+      <c r="BM8" s="85"/>
+      <c r="BN8" s="85"/>
+      <c r="BO8" s="85"/>
+      <c r="BP8" s="85"/>
+      <c r="BQ8" s="85"/>
+      <c r="BR8" s="85"/>
+      <c r="BS8" s="85"/>
+      <c r="BT8" s="85"/>
+      <c r="BU8" s="85"/>
+      <c r="BV8" s="85"/>
+      <c r="BW8" s="85"/>
+      <c r="BX8" s="85"/>
+      <c r="BY8" s="85"/>
+      <c r="BZ8" s="85"/>
+      <c r="CA8" s="85"/>
+      <c r="CB8" s="85"/>
+      <c r="CC8" s="15"/>
+    </row>
+    <row r="9" spans="2:81" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="14"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="85"/>
+      <c r="AC9" s="85"/>
+      <c r="AD9" s="85"/>
+      <c r="AE9" s="85"/>
+      <c r="AF9" s="85"/>
+      <c r="AG9" s="85"/>
+      <c r="AH9" s="85"/>
+      <c r="AI9" s="85"/>
+      <c r="AJ9" s="85"/>
+      <c r="AK9" s="85"/>
+      <c r="AL9" s="85"/>
+      <c r="AM9" s="85"/>
+      <c r="AN9" s="85"/>
+      <c r="AO9" s="85"/>
+      <c r="AP9" s="85"/>
+      <c r="AQ9" s="85"/>
+      <c r="AR9" s="85"/>
+      <c r="AS9" s="85"/>
+      <c r="AT9" s="85"/>
+      <c r="AU9" s="85"/>
+      <c r="AV9" s="85"/>
+      <c r="AW9" s="85"/>
+      <c r="AX9" s="85"/>
+      <c r="AY9" s="85"/>
+      <c r="AZ9" s="85"/>
+      <c r="BA9" s="85"/>
+      <c r="BB9" s="85"/>
+      <c r="BC9" s="85"/>
+      <c r="BD9" s="85"/>
+      <c r="BE9" s="85"/>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="85"/>
+      <c r="BI9" s="85"/>
+      <c r="BJ9" s="85"/>
+      <c r="BK9" s="85"/>
+      <c r="BL9" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM9" s="85"/>
+      <c r="BN9" s="85"/>
+      <c r="BO9" s="85"/>
+      <c r="BP9" s="85"/>
+      <c r="BQ9" s="85"/>
+      <c r="BR9" s="85"/>
+      <c r="BS9" s="85"/>
+      <c r="BT9" s="85"/>
+      <c r="BU9" s="85"/>
+      <c r="BV9" s="85"/>
+      <c r="BW9" s="85"/>
+      <c r="BX9" s="85"/>
+      <c r="BY9" s="85"/>
+      <c r="BZ9" s="85"/>
+      <c r="CA9" s="85"/>
+      <c r="CB9" s="85"/>
+      <c r="CC9" s="15"/>
+    </row>
+    <row r="10" spans="2:81" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="5"/>
+      <c r="BE10" s="5"/>
+      <c r="BF10" s="6"/>
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="5"/>
+      <c r="BI10" s="5"/>
+      <c r="BJ10" s="5"/>
+      <c r="BK10" s="5"/>
+      <c r="BL10" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="BM10" s="5"/>
+      <c r="BN10" s="5"/>
+      <c r="BO10" s="5"/>
+      <c r="BP10" s="5"/>
+      <c r="BQ10" s="5"/>
+      <c r="BR10" s="5"/>
+      <c r="BS10" s="5"/>
+      <c r="BT10" s="5"/>
+      <c r="BU10" s="5"/>
+      <c r="BV10" s="5"/>
+      <c r="BW10" s="5"/>
+      <c r="BX10" s="5"/>
+      <c r="BY10" s="5"/>
+      <c r="BZ10" s="5"/>
+      <c r="CA10" s="5"/>
+      <c r="CB10" s="5"/>
+      <c r="CC10" s="6"/>
+    </row>
+    <row r="11" spans="2:81" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
+      <c r="BF11" s="6"/>
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="5"/>
+      <c r="BI11" s="5"/>
+      <c r="BJ11" s="5"/>
+      <c r="BK11" s="5"/>
+      <c r="BL11" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="BM11" s="5"/>
+      <c r="BN11" s="5"/>
+      <c r="BO11" s="5"/>
+      <c r="BP11" s="5"/>
+      <c r="BQ11" s="5"/>
+      <c r="BR11" s="5"/>
+      <c r="BS11" s="5"/>
+      <c r="BT11" s="5"/>
+      <c r="BU11" s="5"/>
+      <c r="BV11" s="5"/>
+      <c r="BW11" s="5"/>
+      <c r="BX11" s="5"/>
+      <c r="BY11" s="5"/>
+      <c r="BZ11" s="5"/>
+      <c r="CA11" s="5"/>
+      <c r="CB11" s="5"/>
+      <c r="CC11" s="6"/>
+    </row>
+    <row r="12" spans="2:81" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="4"/>
+      <c r="BH12" s="5"/>
+      <c r="BI12" s="5"/>
+      <c r="BJ12" s="5"/>
+      <c r="BK12" s="5"/>
+      <c r="BL12" s="5"/>
+      <c r="BM12" s="5"/>
+      <c r="BN12" s="5"/>
+      <c r="BO12" s="5"/>
+      <c r="BP12" s="5"/>
+      <c r="BQ12" s="5"/>
+      <c r="BR12" s="5"/>
+      <c r="BS12" s="5"/>
+      <c r="BT12" s="5"/>
+      <c r="BU12" s="5"/>
+      <c r="BV12" s="5"/>
+      <c r="BW12" s="5"/>
+      <c r="BX12" s="5"/>
+      <c r="BY12" s="5"/>
+      <c r="BZ12" s="5"/>
+      <c r="CA12" s="5"/>
+      <c r="CB12" s="5"/>
+      <c r="CC12" s="6"/>
+    </row>
+    <row r="13" spans="2:81" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5"/>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="5"/>
+      <c r="BI13" s="5"/>
+      <c r="BJ13" s="5"/>
+      <c r="BK13" s="5"/>
+      <c r="BL13" s="5"/>
+      <c r="BM13" s="5"/>
+      <c r="BN13" s="5"/>
+      <c r="BO13" s="5"/>
+      <c r="BP13" s="5"/>
+      <c r="BQ13" s="5"/>
+      <c r="BR13" s="5"/>
+      <c r="BS13" s="5"/>
+      <c r="BT13" s="5"/>
+      <c r="BU13" s="5"/>
+      <c r="BV13" s="5"/>
+      <c r="BW13" s="5"/>
+      <c r="BX13" s="5"/>
+      <c r="BY13" s="5"/>
+      <c r="BZ13" s="5"/>
+      <c r="CA13" s="5"/>
+      <c r="CB13" s="5"/>
+      <c r="CC13" s="6"/>
+    </row>
+    <row r="14" spans="2:81" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
-      <c r="AB14" s="6"/>
-    </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="5"/>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="5"/>
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="5"/>
+      <c r="BK14" s="5"/>
+      <c r="BL14" s="5"/>
+      <c r="BM14" s="5"/>
+      <c r="BN14" s="5"/>
+      <c r="BO14" s="5"/>
+      <c r="BP14" s="5"/>
+      <c r="BQ14" s="5"/>
+      <c r="BR14" s="5"/>
+      <c r="BS14" s="5"/>
+      <c r="BT14" s="5"/>
+      <c r="BU14" s="5"/>
+      <c r="BV14" s="5"/>
+      <c r="BW14" s="5"/>
+      <c r="BX14" s="5"/>
+      <c r="BY14" s="5"/>
+      <c r="BZ14" s="5"/>
+      <c r="CA14" s="5"/>
+      <c r="CB14" s="5"/>
+      <c r="CC14" s="6"/>
+    </row>
+    <row r="15" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
-      <c r="AB15" s="6"/>
-    </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="T15" s="6"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+      <c r="BE15" s="5"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="5"/>
+      <c r="BI15" s="5"/>
+      <c r="BJ15" s="5"/>
+      <c r="BK15" s="5"/>
+      <c r="BL15" s="5"/>
+      <c r="BM15" s="5"/>
+      <c r="BN15" s="5"/>
+      <c r="BO15" s="5"/>
+      <c r="BP15" s="5"/>
+      <c r="BQ15" s="5"/>
+      <c r="BR15" s="5"/>
+      <c r="BS15" s="5"/>
+      <c r="BT15" s="5"/>
+      <c r="BU15" s="5"/>
+      <c r="BV15" s="5"/>
+      <c r="BW15" s="5"/>
+      <c r="BX15" s="5"/>
+      <c r="BY15" s="5"/>
+      <c r="BZ15" s="5"/>
+      <c r="CA15" s="5"/>
+      <c r="CB15" s="5"/>
+      <c r="CC15" s="6"/>
+    </row>
+    <row r="16" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="AB16" s="6"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="T16" s="6"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="5"/>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="5"/>
+      <c r="BE16" s="5"/>
+      <c r="BF16" s="6"/>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="5"/>
+      <c r="BI16" s="5"/>
+      <c r="BJ16" s="5"/>
+      <c r="BK16" s="5"/>
+      <c r="BL16" s="5"/>
+      <c r="BM16" s="5"/>
+      <c r="BN16" s="5"/>
+      <c r="BO16" s="5"/>
+      <c r="BP16" s="5"/>
+      <c r="BQ16" s="5"/>
+      <c r="BR16" s="5"/>
+      <c r="BS16" s="5"/>
+      <c r="BT16" s="5"/>
+      <c r="BU16" s="5"/>
+      <c r="BV16" s="5"/>
+      <c r="BW16" s="5"/>
+      <c r="BX16" s="5"/>
+      <c r="BY16" s="5"/>
+      <c r="BZ16" s="5"/>
+      <c r="CA16" s="5"/>
+      <c r="CB16" s="5"/>
+      <c r="CC16" s="6"/>
+    </row>
+    <row r="17" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
-      <c r="AB17" s="6"/>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="T17" s="6"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="5"/>
+      <c r="AZ17" s="5"/>
+      <c r="BA17" s="5"/>
+      <c r="BB17" s="5"/>
+      <c r="BC17" s="5"/>
+      <c r="BD17" s="5"/>
+      <c r="BE17" s="5"/>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="5"/>
+      <c r="BI17" s="5"/>
+      <c r="BJ17" s="5"/>
+      <c r="BK17" s="5"/>
+      <c r="BL17" s="5"/>
+      <c r="BM17" s="5"/>
+      <c r="BN17" s="5"/>
+      <c r="BO17" s="5"/>
+      <c r="BP17" s="5"/>
+      <c r="BQ17" s="5"/>
+      <c r="BR17" s="5"/>
+      <c r="BS17" s="5"/>
+      <c r="BT17" s="5"/>
+      <c r="BU17" s="5"/>
+      <c r="BV17" s="5"/>
+      <c r="BW17" s="5"/>
+      <c r="BX17" s="5"/>
+      <c r="BY17" s="5"/>
+      <c r="BZ17" s="5"/>
+      <c r="CA17" s="5"/>
+      <c r="CB17" s="5"/>
+      <c r="CC17" s="6"/>
+    </row>
+    <row r="18" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="AB18" s="6"/>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="T18" s="6"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="5"/>
+      <c r="BB18" s="5"/>
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="5"/>
+      <c r="BE18" s="5"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="5"/>
+      <c r="BI18" s="5"/>
+      <c r="BJ18" s="5"/>
+      <c r="BK18" s="5"/>
+      <c r="BL18" s="5"/>
+      <c r="BM18" s="5"/>
+      <c r="BN18" s="5"/>
+      <c r="BO18" s="5"/>
+      <c r="BP18" s="5"/>
+      <c r="BQ18" s="5"/>
+      <c r="BR18" s="5"/>
+      <c r="BS18" s="5"/>
+      <c r="BT18" s="5"/>
+      <c r="BU18" s="5"/>
+      <c r="BV18" s="5"/>
+      <c r="BW18" s="5"/>
+      <c r="BX18" s="5"/>
+      <c r="BY18" s="5"/>
+      <c r="BZ18" s="5"/>
+      <c r="CA18" s="5"/>
+      <c r="CB18" s="5"/>
+      <c r="CC18" s="6"/>
+    </row>
+    <row r="19" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="AB19" s="6"/>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+      <c r="T19" s="6"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="5"/>
+      <c r="BA19" s="5"/>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="5"/>
+      <c r="BD19" s="5"/>
+      <c r="BE19" s="5"/>
+      <c r="BF19" s="6"/>
+      <c r="BG19" s="7"/>
+      <c r="BH19" s="8"/>
+      <c r="BI19" s="8"/>
+      <c r="BJ19" s="8"/>
+      <c r="BK19" s="8"/>
+      <c r="BL19" s="8"/>
+      <c r="BM19" s="8"/>
+      <c r="BN19" s="8"/>
+      <c r="BO19" s="8"/>
+      <c r="BP19" s="8"/>
+      <c r="BQ19" s="8"/>
+      <c r="BR19" s="8"/>
+      <c r="BS19" s="8"/>
+      <c r="BT19" s="8"/>
+      <c r="BU19" s="8"/>
+      <c r="BV19" s="8"/>
+      <c r="BW19" s="8"/>
+      <c r="BX19" s="8"/>
+      <c r="BY19" s="8"/>
+      <c r="BZ19" s="8"/>
+      <c r="CA19" s="8"/>
+      <c r="CB19" s="8"/>
+      <c r="CC19" s="9"/>
+    </row>
+    <row r="20" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="4"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
-      <c r="AB20" s="6"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="5"/>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="5"/>
+      <c r="BD20" s="5"/>
+      <c r="BE20" s="5"/>
+      <c r="BF20" s="6"/>
+      <c r="CC20" s="5"/>
+      <c r="CD20" s="5"/>
+      <c r="CE20" s="5"/>
+    </row>
+    <row r="21" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="4"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
-      <c r="AB21" s="6"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="5"/>
+      <c r="AX21" s="5"/>
+      <c r="AY21" s="5"/>
+      <c r="AZ21" s="5"/>
+      <c r="BA21" s="5"/>
+      <c r="BB21" s="5"/>
+      <c r="BC21" s="5"/>
+      <c r="BD21" s="5"/>
+      <c r="BE21" s="5"/>
+      <c r="BF21" s="6"/>
+      <c r="BG21" s="4"/>
+      <c r="BH21" s="5"/>
+      <c r="BI21" s="5"/>
+      <c r="BJ21" s="5"/>
+      <c r="BK21" s="5"/>
+      <c r="BL21" s="5"/>
+      <c r="BM21" s="5"/>
+      <c r="BN21" s="5"/>
+      <c r="BO21" s="5"/>
+      <c r="BP21" s="5"/>
+      <c r="BQ21" s="5"/>
+      <c r="BR21" s="5"/>
+      <c r="BS21" s="5"/>
+      <c r="BT21" s="5"/>
+      <c r="BU21" s="5"/>
+      <c r="BV21" s="5"/>
+      <c r="BW21" s="5"/>
+      <c r="BX21" s="5"/>
+      <c r="BY21" s="5"/>
+      <c r="BZ21" s="5"/>
+      <c r="CA21" s="5"/>
+      <c r="CB21" s="5"/>
+      <c r="CC21" s="5"/>
+      <c r="CD21" s="5"/>
+      <c r="CE21" s="5"/>
+    </row>
+    <row r="22" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
+      <c r="F22" t="s">
+        <v>107</v>
+      </c>
+      <c r="T22" s="6"/>
+      <c r="U22" s="4"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
-      <c r="AB22" s="6"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
+      <c r="AZ22" s="5"/>
+      <c r="BA22" s="5"/>
+      <c r="BB22" s="5"/>
+      <c r="BC22" s="5"/>
+      <c r="BD22" s="5"/>
+      <c r="BE22" s="5"/>
+      <c r="BF22" s="6"/>
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="5"/>
+      <c r="BI22" s="5"/>
+      <c r="BJ22" s="5"/>
+      <c r="BK22" s="5"/>
+      <c r="BL22" s="5"/>
+      <c r="BM22" s="5"/>
+      <c r="BN22" s="5"/>
+      <c r="BO22" s="5"/>
+      <c r="BP22" s="5"/>
+      <c r="BQ22" s="5"/>
+      <c r="BR22" s="5"/>
+      <c r="BS22" s="5"/>
+      <c r="BT22" s="5"/>
+      <c r="BU22" s="5"/>
+      <c r="BV22" s="5"/>
+      <c r="BW22" s="5"/>
+      <c r="BX22" s="5"/>
+      <c r="BY22" s="5"/>
+      <c r="BZ22" s="5"/>
+      <c r="CA22" s="5"/>
+      <c r="CB22" s="5"/>
+      <c r="CC22" s="5"/>
+      <c r="CD22" s="5"/>
+      <c r="CE22" s="5"/>
+    </row>
+    <row r="23" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="T23" s="6"/>
+      <c r="U23" s="4"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
-      <c r="AB23" s="6"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="9"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
+      <c r="BF23" s="6"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="5"/>
+      <c r="BJ23" s="5"/>
+      <c r="BK23" s="5"/>
+      <c r="BL23" s="5"/>
+      <c r="BM23" s="5"/>
+      <c r="BN23" s="5"/>
+      <c r="BO23" s="5"/>
+      <c r="BP23" s="5"/>
+      <c r="BQ23" s="5"/>
+      <c r="BR23" s="5"/>
+      <c r="BS23" s="5"/>
+      <c r="BT23" s="5"/>
+      <c r="BU23" s="5"/>
+      <c r="BV23" s="5"/>
+      <c r="BW23" s="5"/>
+      <c r="BX23" s="5"/>
+      <c r="BY23" s="5"/>
+      <c r="BZ23" s="5"/>
+      <c r="CA23" s="5"/>
+      <c r="CB23" s="5"/>
+      <c r="CC23" s="5"/>
+      <c r="CD23" s="5"/>
+      <c r="CE23" s="5"/>
+    </row>
+    <row r="24" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
+      <c r="BF24" s="6"/>
+      <c r="BG24" s="4"/>
+      <c r="BH24" s="5"/>
+      <c r="BI24" s="5"/>
+      <c r="BJ24" s="5"/>
+      <c r="BK24" s="5"/>
+      <c r="BL24" s="5"/>
+      <c r="BM24" s="5"/>
+      <c r="BN24" s="5"/>
+      <c r="BO24" s="5"/>
+      <c r="BP24" s="5"/>
+      <c r="BQ24" s="5"/>
+      <c r="BR24" s="5"/>
+      <c r="BS24" s="5"/>
+      <c r="BT24" s="5"/>
+      <c r="BU24" s="5"/>
+      <c r="BV24" s="5"/>
+      <c r="BW24" s="5"/>
+      <c r="BX24" s="5"/>
+      <c r="BY24" s="5"/>
+      <c r="BZ24" s="5"/>
+      <c r="CA24" s="5"/>
+      <c r="CB24" s="5"/>
+      <c r="CC24" s="5"/>
+      <c r="CD24" s="5"/>
+      <c r="CE24" s="5"/>
+    </row>
+    <row r="25" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+      <c r="T25" s="6"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="5"/>
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="5"/>
+      <c r="AX25" s="5"/>
+      <c r="AY25" s="5"/>
+      <c r="AZ25" s="5"/>
+      <c r="BA25" s="5"/>
+      <c r="BB25" s="5"/>
+      <c r="BC25" s="5"/>
+      <c r="BD25" s="5"/>
+      <c r="BE25" s="5"/>
+      <c r="BF25" s="6"/>
+      <c r="BG25" s="4"/>
+      <c r="BH25" s="5"/>
+      <c r="BI25" s="5"/>
+      <c r="BJ25" s="5"/>
+      <c r="BK25" s="5"/>
+      <c r="BL25" s="5"/>
+      <c r="BM25" s="5"/>
+      <c r="BN25" s="5"/>
+      <c r="BO25" s="5"/>
+      <c r="BP25" s="5"/>
+      <c r="BQ25" s="5"/>
+      <c r="BR25" s="5"/>
+      <c r="BS25" s="5"/>
+      <c r="BT25" s="5"/>
+      <c r="BU25" s="5"/>
+      <c r="BV25" s="5"/>
+      <c r="BW25" s="5"/>
+      <c r="BX25" s="5"/>
+      <c r="BY25" s="5"/>
+      <c r="BZ25" s="5"/>
+      <c r="CA25" s="5"/>
+      <c r="CB25" s="5"/>
+      <c r="CC25" s="5"/>
+      <c r="CD25" s="5"/>
+      <c r="CE25" s="5"/>
+    </row>
+    <row r="26" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B26" s="4"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="5"/>
+      <c r="AU26" s="5"/>
+      <c r="AV26" s="5"/>
+      <c r="AW26" s="5"/>
+      <c r="AX26" s="5"/>
+      <c r="AY26" s="5"/>
+      <c r="AZ26" s="5"/>
+      <c r="BA26" s="5"/>
+      <c r="BB26" s="5"/>
+      <c r="BC26" s="5"/>
+      <c r="BD26" s="5"/>
+      <c r="BE26" s="5"/>
+      <c r="BF26" s="6"/>
+      <c r="BG26" s="4"/>
+      <c r="BH26" s="5"/>
+      <c r="BI26" s="5"/>
+      <c r="BJ26" s="5"/>
+      <c r="BK26" s="5"/>
+      <c r="BL26" s="5"/>
+      <c r="BM26" s="5"/>
+      <c r="BN26" s="5"/>
+      <c r="BO26" s="5"/>
+      <c r="BP26" s="5"/>
+      <c r="BQ26" s="5"/>
+      <c r="BR26" s="5"/>
+      <c r="BS26" s="5"/>
+      <c r="BT26" s="5"/>
+      <c r="BU26" s="5"/>
+      <c r="BV26" s="5"/>
+      <c r="BW26" s="5"/>
+      <c r="BX26" s="5"/>
+      <c r="BY26" s="5"/>
+      <c r="BZ26" s="5"/>
+      <c r="CA26" s="5"/>
+      <c r="CB26" s="5"/>
+      <c r="CC26" s="5"/>
+      <c r="CD26" s="5"/>
+      <c r="CE26" s="5"/>
+    </row>
+    <row r="27" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="5"/>
+      <c r="AW27" s="5"/>
+      <c r="AX27" s="5"/>
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="5"/>
+      <c r="BA27" s="5"/>
+      <c r="BB27" s="5"/>
+      <c r="BC27" s="5"/>
+      <c r="BD27" s="5"/>
+      <c r="BE27" s="5"/>
+      <c r="BF27" s="6"/>
+      <c r="BG27" s="4"/>
+      <c r="BH27" s="5"/>
+      <c r="BI27" s="5"/>
+      <c r="BJ27" s="5"/>
+      <c r="BK27" s="5"/>
+      <c r="BL27" s="5"/>
+      <c r="BM27" s="5"/>
+      <c r="BN27" s="5"/>
+      <c r="BO27" s="5"/>
+      <c r="BP27" s="5"/>
+      <c r="BQ27" s="5"/>
+      <c r="BR27" s="5"/>
+      <c r="BS27" s="5"/>
+      <c r="BT27" s="5"/>
+      <c r="BU27" s="5"/>
+      <c r="BV27" s="5"/>
+      <c r="BW27" s="5"/>
+      <c r="BX27" s="5"/>
+      <c r="BY27" s="5"/>
+      <c r="BZ27" s="5"/>
+      <c r="CA27" s="5"/>
+      <c r="CB27" s="5"/>
+      <c r="CC27" s="5"/>
+      <c r="CD27" s="5"/>
+      <c r="CE27" s="5"/>
+    </row>
+    <row r="28" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="6"/>
+      <c r="CC28" s="5"/>
+      <c r="CD28" s="5"/>
+      <c r="CE28" s="5"/>
+    </row>
+    <row r="29" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="6"/>
+      <c r="CC29" s="5"/>
+      <c r="CD29" s="5"/>
+      <c r="CE29" s="5"/>
+    </row>
+    <row r="30" spans="2:83" x14ac:dyDescent="0.2">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="8"/>
+      <c r="AO30" s="8"/>
+      <c r="AP30" s="8"/>
+      <c r="AQ30" s="8"/>
+      <c r="AR30" s="8"/>
+      <c r="AS30" s="8"/>
+      <c r="AT30" s="8"/>
+      <c r="AU30" s="8"/>
+      <c r="AV30" s="8"/>
+      <c r="AW30" s="8"/>
+      <c r="AX30" s="8"/>
+      <c r="AY30" s="8"/>
+      <c r="AZ30" s="8"/>
+      <c r="BA30" s="8"/>
+      <c r="BB30" s="8"/>
+      <c r="BC30" s="8"/>
+      <c r="BD30" s="8"/>
+      <c r="BE30" s="8"/>
+      <c r="BF30" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="S10:Z11"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG30"/>
+  <dimension ref="B2:AD30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AU13" sqref="AU13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2751,65 +5050,65 @@
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="C7" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52"/>
+      <c r="C7" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="52"/>
-      <c r="U7" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="52"/>
+      <c r="L7" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="47"/>
+      <c r="U7" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="47"/>
       <c r="AD7" s="6"/>
     </row>
     <row r="8" spans="2:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="14"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="55"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="55"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="50"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="50"/>
       <c r="AD8" s="15"/>
     </row>
     <row r="9" spans="2:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -2819,7 +5118,7 @@
     <row r="10" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="23" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2861,16 +5160,16 @@
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="20" t="s">
-        <v>41</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -2881,16 +5180,16 @@
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="22"/>
-      <c r="S13" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="49"/>
+      <c r="S13" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="44"/>
       <c r="Y13" s="20" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="Z13" s="21"/>
       <c r="AA13" s="21"/>
@@ -2900,214 +5199,202 @@
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
-      <c r="C14" s="60">
+      <c r="C14" s="55">
         <v>43191</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="28"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="27"/>
       <c r="AD14" s="6"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
-      <c r="C15" s="60">
+      <c r="C15" s="55">
         <v>43191</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="28"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="27"/>
       <c r="AD15" s="6"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="60">
+      <c r="C16" s="55">
         <v>43160</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="28"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="27"/>
       <c r="AD16" s="6"/>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="28"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="27"/>
       <c r="AD17" s="6"/>
-      <c r="AF17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="6"/>
-      <c r="AG18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="AD19" s="6"/>
-      <c r="AG19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="AD20" s="6"/>
-      <c r="AG20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="AD21" s="6"/>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
       <c r="AD22" s="6"/>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
       <c r="AD23" s="6"/>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="AD24" s="6"/>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
       <c r="AD25" s="6"/>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="AD26" s="6"/>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="AD27" s="6"/>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="AD28" s="6"/>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="AD29" s="6"/>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -3164,11 +5451,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BI38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
@@ -3176,7 +5463,7 @@
   <sheetData>
     <row r="2" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3207,7 +5494,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="3"/>
       <c r="AG2" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -3410,17 +5697,17 @@
     </row>
     <row r="6" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
-      <c r="C6" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
+      <c r="C6" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -3432,39 +5719,39 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="V6" s="64"/>
+      <c r="V6" s="67"/>
       <c r="Y6" s="5"/>
       <c r="AD6" s="6"/>
       <c r="AG6" s="4"/>
-      <c r="AH6" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="49"/>
-      <c r="AO6" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="39"/>
-      <c r="AS6" s="39"/>
-      <c r="AT6" s="39"/>
-      <c r="AU6" s="40"/>
-      <c r="AV6" s="39"/>
-      <c r="AW6" s="39"/>
-      <c r="AX6" s="39"/>
-      <c r="AY6" s="40"/>
-      <c r="AZ6" s="71" t="s">
+      <c r="AH6" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="43"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="39"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="39"/>
+      <c r="AZ6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="BA6" s="72"/>
+      <c r="BA6" s="59"/>
       <c r="BD6" s="5"/>
       <c r="BI6" s="6"/>
     </row>
@@ -3530,40 +5817,40 @@
     </row>
     <row r="8" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
-      <c r="C8" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="67"/>
+      <c r="C8" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="70"/>
       <c r="AD8" s="6"/>
       <c r="AG8" s="4"/>
-      <c r="AH8" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="74"/>
-      <c r="AS8" s="75"/>
+      <c r="AH8" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="43"/>
+      <c r="AL8" s="43"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO8" s="61"/>
+      <c r="AP8" s="61"/>
+      <c r="AQ8" s="61"/>
+      <c r="AR8" s="61"/>
+      <c r="AS8" s="62"/>
       <c r="BI8" s="6"/>
     </row>
     <row r="9" spans="2:61" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -3608,58 +5895,58 @@
     </row>
     <row r="10" spans="2:61" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
-      <c r="C10" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="49"/>
+      <c r="C10" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="44"/>
       <c r="AD10" s="15"/>
       <c r="AG10" s="14"/>
-      <c r="AH10" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="48"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="48"/>
-      <c r="AP10" s="48"/>
-      <c r="AQ10" s="48"/>
-      <c r="AR10" s="48"/>
-      <c r="AS10" s="48"/>
-      <c r="AT10" s="48"/>
-      <c r="AU10" s="48"/>
-      <c r="AV10" s="48"/>
-      <c r="AW10" s="48"/>
-      <c r="AX10" s="48"/>
-      <c r="AY10" s="48"/>
-      <c r="AZ10" s="48"/>
-      <c r="BA10" s="49"/>
+      <c r="AH10" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="43"/>
+      <c r="AN10" s="43"/>
+      <c r="AO10" s="43"/>
+      <c r="AP10" s="43"/>
+      <c r="AQ10" s="43"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="43"/>
+      <c r="AT10" s="43"/>
+      <c r="AU10" s="43"/>
+      <c r="AV10" s="43"/>
+      <c r="AW10" s="43"/>
+      <c r="AX10" s="43"/>
+      <c r="AY10" s="43"/>
+      <c r="AZ10" s="43"/>
+      <c r="BA10" s="44"/>
       <c r="BI10" s="15"/>
     </row>
     <row r="11" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3689,28 +5976,28 @@
       <c r="AC11" s="5"/>
       <c r="AD11" s="6"/>
       <c r="AG11" s="4"/>
-      <c r="AH11" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="30"/>
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="30"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="30"/>
-      <c r="AQ11" s="30"/>
-      <c r="AR11" s="30"/>
-      <c r="AS11" s="30"/>
-      <c r="AT11" s="30"/>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="30"/>
-      <c r="AW11" s="30"/>
-      <c r="AX11" s="30"/>
-      <c r="AY11" s="30"/>
-      <c r="AZ11" s="30"/>
-      <c r="BA11" s="31"/>
+      <c r="AH11" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="29"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="29"/>
+      <c r="AW11" s="29"/>
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="29"/>
+      <c r="BA11" s="30"/>
       <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
       <c r="BD11" s="5"/>
@@ -3723,7 +6010,7 @@
     <row r="12" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -3747,35 +6034,35 @@
       <c r="AC12" s="5"/>
       <c r="AD12" s="6"/>
       <c r="AG12" s="4"/>
-      <c r="AH12" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="33"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="33"/>
-      <c r="AQ12" s="33"/>
-      <c r="AR12" s="33"/>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="33"/>
-      <c r="AU12" s="33"/>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="33"/>
-      <c r="AX12" s="33"/>
-      <c r="AY12" s="33"/>
-      <c r="AZ12" s="33"/>
-      <c r="BA12" s="34"/>
+      <c r="AH12" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="32"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="32"/>
+      <c r="AX12" s="32"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="32"/>
+      <c r="BA12" s="33"/>
       <c r="BH12" s="5"/>
       <c r="BI12" s="6"/>
     </row>
     <row r="13" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -3798,34 +6085,34 @@
       <c r="V13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AG13" s="4"/>
-      <c r="AH13" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="33"/>
-      <c r="AQ13" s="33"/>
-      <c r="AR13" s="33"/>
-      <c r="AS13" s="33"/>
-      <c r="AT13" s="33"/>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="33"/>
-      <c r="AZ13" s="33"/>
-      <c r="BA13" s="34"/>
+      <c r="AH13" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="32"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="32"/>
+      <c r="AX13" s="32"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="32"/>
+      <c r="BA13" s="33"/>
       <c r="BI13" s="6"/>
     </row>
     <row r="14" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -3848,28 +6135,28 @@
       <c r="V14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AG14" s="4"/>
-      <c r="AH14" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="33"/>
-      <c r="AS14" s="33"/>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="33"/>
-      <c r="AX14" s="33"/>
-      <c r="AY14" s="33"/>
-      <c r="AZ14" s="33"/>
-      <c r="BA14" s="34"/>
+      <c r="AH14" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="32"/>
+      <c r="AX14" s="32"/>
+      <c r="AY14" s="32"/>
+      <c r="AZ14" s="32"/>
+      <c r="BA14" s="33"/>
       <c r="BI14" s="6"/>
     </row>
     <row r="15" spans="2:61" x14ac:dyDescent="0.2">
@@ -3903,26 +6190,26 @@
       <c r="AC15" s="5"/>
       <c r="AD15" s="6"/>
       <c r="AG15" s="4"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="33"/>
-      <c r="AR15" s="33"/>
-      <c r="AS15" s="33"/>
-      <c r="AT15" s="33"/>
-      <c r="AU15" s="33"/>
-      <c r="AV15" s="33"/>
-      <c r="AW15" s="33"/>
-      <c r="AX15" s="33"/>
-      <c r="AY15" s="33"/>
-      <c r="AZ15" s="33"/>
-      <c r="BA15" s="34"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="32"/>
+      <c r="AX15" s="32"/>
+      <c r="AY15" s="32"/>
+      <c r="AZ15" s="32"/>
+      <c r="BA15" s="33"/>
       <c r="BB15" s="5"/>
       <c r="BC15" s="5"/>
       <c r="BD15" s="5"/>
@@ -3957,26 +6244,26 @@
       <c r="AC16" s="5"/>
       <c r="AD16" s="6"/>
       <c r="AG16" s="4"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="36"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="36"/>
-      <c r="AP16" s="36"/>
-      <c r="AQ16" s="36"/>
-      <c r="AR16" s="36"/>
-      <c r="AS16" s="36"/>
-      <c r="AT16" s="36"/>
-      <c r="AU16" s="36"/>
-      <c r="AV16" s="36"/>
-      <c r="AW16" s="36"/>
-      <c r="AX16" s="36"/>
-      <c r="AY16" s="36"/>
-      <c r="AZ16" s="36"/>
-      <c r="BA16" s="37"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="35"/>
+      <c r="AQ16" s="35"/>
+      <c r="AR16" s="35"/>
+      <c r="AS16" s="35"/>
+      <c r="AT16" s="35"/>
+      <c r="AU16" s="35"/>
+      <c r="AV16" s="35"/>
+      <c r="AW16" s="35"/>
+      <c r="AX16" s="35"/>
+      <c r="AY16" s="35"/>
+      <c r="AZ16" s="35"/>
+      <c r="BA16" s="36"/>
       <c r="BH16" s="5"/>
       <c r="BI16" s="6"/>
     </row>
@@ -3989,7 +6276,7 @@
     <row r="18" spans="2:61" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
       <c r="S18" s="24" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="T18" s="24"/>
       <c r="AD18" s="15"/>
@@ -4013,7 +6300,7 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
       <c r="S19" s="24" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="T19" s="24"/>
       <c r="U19" s="16"/>
@@ -4074,7 +6361,7 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
       <c r="S20" s="24" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="T20" s="24"/>
       <c r="U20" s="16"/>
@@ -4129,7 +6416,7 @@
       <c r="V21" s="16"/>
       <c r="AD21" s="6"/>
       <c r="AG21" s="4"/>
-      <c r="AH21" s="42"/>
+      <c r="AH21" s="41"/>
       <c r="AI21" s="16"/>
       <c r="AJ21" s="16"/>
       <c r="AK21" s="16"/>
@@ -4245,52 +6532,52 @@
     </row>
     <row r="24" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
-      <c r="C24" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="70"/>
+      <c r="C24" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="65"/>
       <c r="AD24" s="6"/>
       <c r="AG24" s="4"/>
-      <c r="AH24" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI24" s="69"/>
-      <c r="AJ24" s="69"/>
-      <c r="AK24" s="69"/>
-      <c r="AL24" s="69"/>
-      <c r="AM24" s="69"/>
-      <c r="AN24" s="69"/>
-      <c r="AO24" s="69"/>
-      <c r="AP24" s="69"/>
-      <c r="AQ24" s="69"/>
-      <c r="AR24" s="69"/>
-      <c r="AS24" s="69"/>
-      <c r="AT24" s="69"/>
-      <c r="AU24" s="69"/>
-      <c r="AV24" s="69"/>
-      <c r="AW24" s="69"/>
-      <c r="AX24" s="69"/>
-      <c r="AY24" s="69"/>
-      <c r="AZ24" s="69"/>
-      <c r="BA24" s="70"/>
+      <c r="AH24" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI24" s="64"/>
+      <c r="AJ24" s="64"/>
+      <c r="AK24" s="64"/>
+      <c r="AL24" s="64"/>
+      <c r="AM24" s="64"/>
+      <c r="AN24" s="64"/>
+      <c r="AO24" s="64"/>
+      <c r="AP24" s="64"/>
+      <c r="AQ24" s="64"/>
+      <c r="AR24" s="64"/>
+      <c r="AS24" s="64"/>
+      <c r="AT24" s="64"/>
+      <c r="AU24" s="64"/>
+      <c r="AV24" s="64"/>
+      <c r="AW24" s="64"/>
+      <c r="AX24" s="64"/>
+      <c r="AY24" s="64"/>
+      <c r="AZ24" s="64"/>
+      <c r="BA24" s="65"/>
       <c r="BI24" s="6"/>
     </row>
     <row r="25" spans="2:61" x14ac:dyDescent="0.2">
@@ -4317,26 +6604,26 @@
       <c r="V25" s="3"/>
       <c r="AD25" s="6"/>
       <c r="AG25" s="4"/>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="30"/>
-      <c r="AK25" s="30"/>
-      <c r="AL25" s="30"/>
-      <c r="AM25" s="30"/>
-      <c r="AN25" s="30"/>
-      <c r="AO25" s="30"/>
-      <c r="AP25" s="30"/>
-      <c r="AQ25" s="30"/>
-      <c r="AR25" s="30"/>
-      <c r="AS25" s="30"/>
-      <c r="AT25" s="30"/>
-      <c r="AU25" s="30"/>
-      <c r="AV25" s="30"/>
-      <c r="AW25" s="30"/>
-      <c r="AX25" s="30"/>
-      <c r="AY25" s="30"/>
-      <c r="AZ25" s="30"/>
-      <c r="BA25" s="31"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="29"/>
+      <c r="AL25" s="29"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="29"/>
+      <c r="AO25" s="29"/>
+      <c r="AP25" s="29"/>
+      <c r="AQ25" s="29"/>
+      <c r="AR25" s="29"/>
+      <c r="AS25" s="29"/>
+      <c r="AT25" s="29"/>
+      <c r="AU25" s="29"/>
+      <c r="AV25" s="29"/>
+      <c r="AW25" s="29"/>
+      <c r="AX25" s="29"/>
+      <c r="AY25" s="29"/>
+      <c r="AZ25" s="29"/>
+      <c r="BA25" s="30"/>
       <c r="BI25" s="6"/>
     </row>
     <row r="26" spans="2:61" x14ac:dyDescent="0.2">
@@ -4363,26 +6650,26 @@
       <c r="V26" s="6"/>
       <c r="AD26" s="6"/>
       <c r="AG26" s="4"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="33"/>
-      <c r="AL26" s="33"/>
-      <c r="AM26" s="33"/>
-      <c r="AN26" s="33"/>
-      <c r="AO26" s="33"/>
-      <c r="AP26" s="33"/>
-      <c r="AQ26" s="33"/>
-      <c r="AR26" s="33"/>
-      <c r="AS26" s="33"/>
-      <c r="AT26" s="33"/>
-      <c r="AU26" s="33"/>
-      <c r="AV26" s="33"/>
-      <c r="AW26" s="33"/>
-      <c r="AX26" s="33"/>
-      <c r="AY26" s="33"/>
-      <c r="AZ26" s="33"/>
-      <c r="BA26" s="34"/>
+      <c r="AH26" s="31"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="32"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32"/>
+      <c r="AO26" s="32"/>
+      <c r="AP26" s="32"/>
+      <c r="AQ26" s="32"/>
+      <c r="AR26" s="32"/>
+      <c r="AS26" s="32"/>
+      <c r="AT26" s="32"/>
+      <c r="AU26" s="32"/>
+      <c r="AV26" s="32"/>
+      <c r="AW26" s="32"/>
+      <c r="AX26" s="32"/>
+      <c r="AY26" s="32"/>
+      <c r="AZ26" s="32"/>
+      <c r="BA26" s="33"/>
       <c r="BI26" s="6"/>
     </row>
     <row r="27" spans="2:61" x14ac:dyDescent="0.2">
@@ -4409,26 +6696,26 @@
       <c r="V27" s="6"/>
       <c r="AD27" s="6"/>
       <c r="AG27" s="4"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="33"/>
-      <c r="AL27" s="33"/>
-      <c r="AM27" s="33"/>
-      <c r="AN27" s="33"/>
-      <c r="AO27" s="33"/>
-      <c r="AP27" s="33"/>
-      <c r="AQ27" s="33"/>
-      <c r="AR27" s="33"/>
-      <c r="AS27" s="33"/>
-      <c r="AT27" s="33"/>
-      <c r="AU27" s="33"/>
-      <c r="AV27" s="33"/>
-      <c r="AW27" s="33"/>
-      <c r="AX27" s="33"/>
-      <c r="AY27" s="33"/>
-      <c r="AZ27" s="33"/>
-      <c r="BA27" s="34"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="32"/>
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="32"/>
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="32"/>
+      <c r="AY27" s="32"/>
+      <c r="AZ27" s="32"/>
+      <c r="BA27" s="33"/>
       <c r="BI27" s="6"/>
     </row>
     <row r="28" spans="2:61" x14ac:dyDescent="0.2">
@@ -4455,26 +6742,26 @@
       <c r="V28" s="6"/>
       <c r="AD28" s="6"/>
       <c r="AG28" s="4"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="33"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="33"/>
-      <c r="AO28" s="33"/>
-      <c r="AP28" s="33"/>
-      <c r="AQ28" s="33"/>
-      <c r="AR28" s="33"/>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="33"/>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="33"/>
-      <c r="AX28" s="33"/>
-      <c r="AY28" s="33"/>
-      <c r="AZ28" s="33"/>
-      <c r="BA28" s="34"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="32"/>
+      <c r="AQ28" s="32"/>
+      <c r="AR28" s="32"/>
+      <c r="AS28" s="32"/>
+      <c r="AT28" s="32"/>
+      <c r="AU28" s="32"/>
+      <c r="AV28" s="32"/>
+      <c r="AW28" s="32"/>
+      <c r="AX28" s="32"/>
+      <c r="AY28" s="32"/>
+      <c r="AZ28" s="32"/>
+      <c r="BA28" s="33"/>
       <c r="BI28" s="6"/>
     </row>
     <row r="29" spans="2:61" x14ac:dyDescent="0.2">
@@ -4501,26 +6788,26 @@
       <c r="V29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AG29" s="4"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="33"/>
-      <c r="AJ29" s="33"/>
-      <c r="AK29" s="33"/>
-      <c r="AL29" s="33"/>
-      <c r="AM29" s="33"/>
-      <c r="AN29" s="33"/>
-      <c r="AO29" s="33"/>
-      <c r="AP29" s="33"/>
-      <c r="AQ29" s="33"/>
-      <c r="AR29" s="33"/>
-      <c r="AS29" s="33"/>
-      <c r="AT29" s="33"/>
-      <c r="AU29" s="33"/>
-      <c r="AV29" s="33"/>
-      <c r="AW29" s="33"/>
-      <c r="AX29" s="33"/>
-      <c r="AY29" s="33"/>
-      <c r="AZ29" s="33"/>
-      <c r="BA29" s="34"/>
+      <c r="AH29" s="31"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="32"/>
+      <c r="AK29" s="32"/>
+      <c r="AL29" s="32"/>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="32"/>
+      <c r="AO29" s="32"/>
+      <c r="AP29" s="32"/>
+      <c r="AQ29" s="32"/>
+      <c r="AR29" s="32"/>
+      <c r="AS29" s="32"/>
+      <c r="AT29" s="32"/>
+      <c r="AU29" s="32"/>
+      <c r="AV29" s="32"/>
+      <c r="AW29" s="32"/>
+      <c r="AX29" s="32"/>
+      <c r="AY29" s="32"/>
+      <c r="AZ29" s="32"/>
+      <c r="BA29" s="33"/>
       <c r="BI29" s="6"/>
     </row>
     <row r="30" spans="2:61" x14ac:dyDescent="0.2">
@@ -4546,30 +6833,30 @@
       <c r="U30" s="5"/>
       <c r="V30" s="6"/>
       <c r="X30" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AD30" s="6"/>
       <c r="AG30" s="4"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="33"/>
-      <c r="AK30" s="33"/>
-      <c r="AL30" s="33"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="33"/>
-      <c r="AO30" s="33"/>
-      <c r="AP30" s="33"/>
-      <c r="AQ30" s="33"/>
-      <c r="AR30" s="33"/>
-      <c r="AS30" s="33"/>
-      <c r="AT30" s="33"/>
-      <c r="AU30" s="33"/>
-      <c r="AV30" s="33"/>
-      <c r="AW30" s="33"/>
-      <c r="AX30" s="33"/>
-      <c r="AY30" s="33"/>
-      <c r="AZ30" s="33"/>
-      <c r="BA30" s="34"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="32"/>
+      <c r="AK30" s="32"/>
+      <c r="AL30" s="32"/>
+      <c r="AM30" s="32"/>
+      <c r="AN30" s="32"/>
+      <c r="AO30" s="32"/>
+      <c r="AP30" s="32"/>
+      <c r="AQ30" s="32"/>
+      <c r="AR30" s="32"/>
+      <c r="AS30" s="32"/>
+      <c r="AT30" s="32"/>
+      <c r="AU30" s="32"/>
+      <c r="AV30" s="32"/>
+      <c r="AW30" s="32"/>
+      <c r="AX30" s="32"/>
+      <c r="AY30" s="32"/>
+      <c r="AZ30" s="32"/>
+      <c r="BA30" s="33"/>
       <c r="BI30" s="6"/>
     </row>
     <row r="31" spans="2:61" x14ac:dyDescent="0.2">
@@ -4595,30 +6882,30 @@
       <c r="U31" s="8"/>
       <c r="V31" s="9"/>
       <c r="Z31" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="AD31" s="6"/>
       <c r="AG31" s="4"/>
-      <c r="AH31" s="35"/>
-      <c r="AI31" s="36"/>
-      <c r="AJ31" s="36"/>
-      <c r="AK31" s="36"/>
-      <c r="AL31" s="36"/>
-      <c r="AM31" s="36"/>
-      <c r="AN31" s="36"/>
-      <c r="AO31" s="36"/>
-      <c r="AP31" s="36"/>
-      <c r="AQ31" s="36"/>
-      <c r="AR31" s="36"/>
-      <c r="AS31" s="36"/>
-      <c r="AT31" s="36"/>
-      <c r="AU31" s="36"/>
-      <c r="AV31" s="36"/>
-      <c r="AW31" s="36"/>
-      <c r="AX31" s="36"/>
-      <c r="AY31" s="36"/>
-      <c r="AZ31" s="36"/>
-      <c r="BA31" s="37"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="35"/>
+      <c r="AJ31" s="35"/>
+      <c r="AK31" s="35"/>
+      <c r="AL31" s="35"/>
+      <c r="AM31" s="35"/>
+      <c r="AN31" s="35"/>
+      <c r="AO31" s="35"/>
+      <c r="AP31" s="35"/>
+      <c r="AQ31" s="35"/>
+      <c r="AR31" s="35"/>
+      <c r="AS31" s="35"/>
+      <c r="AT31" s="35"/>
+      <c r="AU31" s="35"/>
+      <c r="AV31" s="35"/>
+      <c r="AW31" s="35"/>
+      <c r="AX31" s="35"/>
+      <c r="AY31" s="35"/>
+      <c r="AZ31" s="35"/>
+      <c r="BA31" s="36"/>
       <c r="BI31" s="6"/>
     </row>
     <row r="32" spans="2:61" x14ac:dyDescent="0.2">
@@ -4644,7 +6931,7 @@
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="Z32" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AD32" s="6"/>
       <c r="AG32" s="4"/>
@@ -4718,28 +7005,28 @@
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
+      <c r="E34" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
+      <c r="O34" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
@@ -4751,28 +7038,28 @@
       <c r="AG34" s="4"/>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
-      <c r="AJ34" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK34" s="62"/>
-      <c r="AL34" s="62"/>
-      <c r="AM34" s="62"/>
-      <c r="AN34" s="62"/>
-      <c r="AO34" s="62"/>
-      <c r="AP34" s="62"/>
-      <c r="AQ34" s="62"/>
+      <c r="AJ34" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK34" s="57"/>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="57"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="57"/>
       <c r="AR34" s="5"/>
       <c r="AS34" s="5"/>
-      <c r="AT34" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU34" s="62"/>
-      <c r="AV34" s="62"/>
-      <c r="AW34" s="62"/>
-      <c r="AX34" s="62"/>
-      <c r="AY34" s="62"/>
-      <c r="AZ34" s="62"/>
-      <c r="BA34" s="62"/>
+      <c r="AT34" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="57"/>
+      <c r="AX34" s="57"/>
+      <c r="AY34" s="57"/>
+      <c r="AZ34" s="57"/>
+      <c r="BA34" s="57"/>
       <c r="BB34" s="5"/>
       <c r="BC34" s="5"/>
       <c r="BD34" s="5"/>
@@ -4786,24 +7073,24 @@
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
@@ -4815,24 +7102,24 @@
       <c r="AG35" s="4"/>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
-      <c r="AJ35" s="62"/>
-      <c r="AK35" s="62"/>
-      <c r="AL35" s="62"/>
-      <c r="AM35" s="62"/>
-      <c r="AN35" s="62"/>
-      <c r="AO35" s="62"/>
-      <c r="AP35" s="62"/>
-      <c r="AQ35" s="62"/>
+      <c r="AJ35" s="57"/>
+      <c r="AK35" s="57"/>
+      <c r="AL35" s="57"/>
+      <c r="AM35" s="57"/>
+      <c r="AN35" s="57"/>
+      <c r="AO35" s="57"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="57"/>
       <c r="AR35" s="5"/>
       <c r="AS35" s="5"/>
-      <c r="AT35" s="62"/>
-      <c r="AU35" s="62"/>
-      <c r="AV35" s="62"/>
-      <c r="AW35" s="62"/>
-      <c r="AX35" s="62"/>
-      <c r="AY35" s="62"/>
-      <c r="AZ35" s="62"/>
-      <c r="BA35" s="62"/>
+      <c r="AT35" s="57"/>
+      <c r="AU35" s="57"/>
+      <c r="AV35" s="57"/>
+      <c r="AW35" s="57"/>
+      <c r="AX35" s="57"/>
+      <c r="AY35" s="57"/>
+      <c r="AZ35" s="57"/>
+      <c r="BA35" s="57"/>
       <c r="BB35" s="5"/>
       <c r="BC35" s="5"/>
       <c r="BD35" s="5"/>
@@ -4847,7 +7134,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -4906,14 +7193,22 @@
     </row>
     <row r="38" spans="2:61" x14ac:dyDescent="0.2">
       <c r="J38" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="AO38" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="O34:V35"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="C10:V10"/>
+    <mergeCell ref="C24:V24"/>
     <mergeCell ref="AH10:BA10"/>
     <mergeCell ref="AJ34:AQ35"/>
     <mergeCell ref="AT34:BA35"/>
@@ -4922,14 +7217,6 @@
     <mergeCell ref="AH8:AM8"/>
     <mergeCell ref="AN8:AS8"/>
     <mergeCell ref="AH24:BA24"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="O34:V35"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="C10:V10"/>
-    <mergeCell ref="C24:V24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4938,7 +7225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AD25"/>
   <sheetViews>
@@ -4948,7 +7235,7 @@
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5012,17 +7299,17 @@
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -5073,34 +7360,34 @@
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
-      <c r="C6" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="49"/>
+      <c r="C6" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="44"/>
       <c r="AD6" s="6"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -5130,7 +7417,7 @@
     <row r="8" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -5269,34 +7556,34 @@
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
-      <c r="C14" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="49"/>
+      <c r="C14" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="44"/>
       <c r="AD14" s="6"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
-      <c r="C15" s="41" t="s">
-        <v>87</v>
+      <c r="C15" s="40" t="s">
+        <v>74</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -5357,17 +7644,17 @@
     </row>
     <row r="18" spans="2:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
-      <c r="C18" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49"/>
+      <c r="C18" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="10" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -5435,28 +7722,28 @@
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
+      <c r="E21" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="73"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="78"/>
+      <c r="O21" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="73"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
@@ -5470,24 +7757,24 @@
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="55"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="55"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="50"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
@@ -5530,7 +7817,7 @@
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5541,661 +7828,6 @@
     <mergeCell ref="E21:L22"/>
     <mergeCell ref="C14:V14"/>
     <mergeCell ref="C18:I18"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG30"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA23" sqref="BA23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="3"/>
-      <c r="AG2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="6"/>
-    </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-      <c r="O4" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="52"/>
-      <c r="AD4" s="6"/>
-      <c r="AG4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="55"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="AD5" s="6"/>
-    </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="AD6" s="6"/>
-    </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="AD7" s="6"/>
-    </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="49"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="6"/>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="12"/>
-      <c r="AD9" s="6"/>
-    </row>
-    <row r="10" spans="2:33" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
-      <c r="C10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="12"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AD10" s="15"/>
-    </row>
-    <row r="11" spans="2:33" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
-      <c r="C11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="12"/>
-      <c r="AD11" s="15"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="6"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-      <c r="C13" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="46"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="6"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="6"/>
-    </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="6"/>
-    </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="6"/>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="6"/>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="AD18" s="6"/>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="65">
-        <v>1</v>
-      </c>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="67"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="6"/>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="6"/>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="O21" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="78"/>
-      <c r="AD21" s="6"/>
-    </row>
-    <row r="22" spans="2:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="55"/>
-      <c r="AD22" s="15"/>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="6"/>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="6"/>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="AD25" s="6"/>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="AD26" s="6"/>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="6"/>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="6"/>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="6"/>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="O21:V22"/>
-    <mergeCell ref="C8:V8"/>
-    <mergeCell ref="O4:V5"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I19:N19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6225,19 +7857,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="79" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
@@ -6280,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>0</v>
@@ -6305,10 +7937,10 @@
         <v>22</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>19</v>
@@ -6338,7 +7970,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>20</v>
@@ -6398,7 +8030,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>20</v>

--- a/01_document/画面定義書.xlsx
+++ b/01_document/画面定義書.xlsx
@@ -13,9 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="5" r:id="rId1"/>
-    <sheet name="メイン画面" sheetId="9" r:id="rId2"/>
-    <sheet name="家族登録画面" sheetId="7" r:id="rId3"/>
-    <sheet name="XXX画面(項目定義)" sheetId="3" r:id="rId4"/>
+    <sheet name="イベント画面" sheetId="10" r:id="rId2"/>
+    <sheet name="報告画面" sheetId="12" r:id="rId3"/>
+    <sheet name="目標画面" sheetId="13" r:id="rId4"/>
+    <sheet name="ユーザー選択ダイアログ" sheetId="11" r:id="rId5"/>
+    <sheet name="欲しいものダイアログ" sheetId="7" r:id="rId6"/>
+    <sheet name="PC版メイン画面" sheetId="9" r:id="rId7"/>
+    <sheet name="XXX画面(項目定義)" sheetId="3" r:id="rId8"/>
+    <sheet name="欲しいものダイアログ (2)" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="96">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -256,10 +261,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ろぐいん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>せつめい</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -312,10 +313,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>おねだり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>季節の広告2</t>
     <rPh sb="0" eb="2">
       <t>キセツ</t>
@@ -340,18 +337,6 @@
     <rPh sb="6" eb="8">
       <t>コウコク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゆーざID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ぱすわーど</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>じーじばーばおねだりしすてむ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -500,12 +485,145 @@
     <t>さんすうがくらすでいちばんでした。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じーじばーばおねだりシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←バナー広告を２～３個</t>
+    <rPh sb="4" eb="6">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かぞくせんたく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マークを押すとユーザー選択ダイアログが表示される。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントはリンクになっていて押すと、今日の報告画面を開き日付のハッシュタグで絞り込む</t>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒日付のハッシュタグで報告を登録・閲覧できる</t>
+    <rPh sb="1" eb="3">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「とうろく」するとイベントが追加される</t>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆいちゃん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←クリックすると欲しいものダイアログが開く</t>
+    <rPh sb="8" eb="9">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←クリックすると欲しいもののURLが別画面で開く(楽天市場)</t>
+    <rPh sb="8" eb="9">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ラクテン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←削除はどうするか？</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,6 +704,15 @@
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -796,7 +923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,6 +1005,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,15 +1030,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,6 +1059,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,31 +1092,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,6 +1156,2301 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>15704</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="373380" y="792480"/>
+          <a:ext cx="2690324" cy="1531620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="1836420"/>
+          <a:ext cx="914400" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487680" y="762000"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ろぐいん</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="914400"/>
+          <a:ext cx="914400" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログインＩＤ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="403860" y="1363980"/>
+          <a:ext cx="914400" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83821</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205741" y="4282441"/>
+          <a:ext cx="761999" cy="761999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>37937</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990601" y="4282439"/>
+          <a:ext cx="2217256" cy="778811"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="373380" y="388620"/>
+          <a:ext cx="1920240" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="160020" y="1127760"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="160020" y="3520440"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>102516</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="160020" y="4625341"/>
+          <a:ext cx="308256" cy="274319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>20481</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="160020" y="2941321"/>
+          <a:ext cx="348141" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57487</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="160020" y="3954780"/>
+          <a:ext cx="385147" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="160020" y="2133601"/>
+          <a:ext cx="342085" cy="259079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="510540" y="449580"/>
+          <a:ext cx="175260" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1691640" y="617220"/>
+          <a:ext cx="662940" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>とうろく</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3208020" y="495300"/>
+          <a:ext cx="175260" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>16485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2567940" y="434340"/>
+          <a:ext cx="4168140" cy="1090905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2560320" y="1844040"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="角丸四角形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3070860" y="541020"/>
+          <a:ext cx="2202180" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>きょうのほうこく</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="角丸四角形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6035040" y="1150620"/>
+          <a:ext cx="662940" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ほうこく</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>78106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>59690</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2994660" y="4939666"/>
+          <a:ext cx="3892550" cy="419099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>80554</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>92257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>71846</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>58425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3006634" y="3780337"/>
+          <a:ext cx="3405052" cy="1139648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17417</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>93617</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>74437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2943497" y="3840894"/>
+          <a:ext cx="441960" cy="256903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>37147</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>150501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="角丸四角形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3328987" y="3838581"/>
+          <a:ext cx="708661" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>人</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10477</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>29864</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>86677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2936557" y="4362450"/>
+          <a:ext cx="385147" cy="250507"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>140971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>31433</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="角丸四角形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3372802" y="4331971"/>
+          <a:ext cx="2632711" cy="514347"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>おじいちゃん　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>位になれてよかったね。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>だれににたのかな。おとうさんかな。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2872740" y="2385061"/>
+          <a:ext cx="1386840" cy="1189361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>101509</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>115117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4368709" y="2462077"/>
+          <a:ext cx="1757771" cy="1203097"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="259080" cy="259080"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2560320" y="5532120"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>65722</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="角丸四角形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3357562" y="4737741"/>
+          <a:ext cx="711518" cy="200019"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7231380" y="449580"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>118447</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658100" y="784860"/>
+          <a:ext cx="385147" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3456</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7741920" y="1630681"/>
+          <a:ext cx="308256" cy="274319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121105</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7216140" y="2499360"/>
+          <a:ext cx="342085" cy="259079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="385147" cy="251460"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658100" y="2964180"/>
+          <a:ext cx="385147" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="160020" y="1127760"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="160020" y="3520440"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>102516</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="160020" y="4625341"/>
+          <a:ext cx="308256" cy="274319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>20481</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="160020" y="2941321"/>
+          <a:ext cx="348141" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57487</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="160020" y="3954780"/>
+          <a:ext cx="385147" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>14425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="160020" y="2133601"/>
+          <a:ext cx="342085" cy="259079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2148840" y="312420"/>
+          <a:ext cx="510540" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="角丸四角形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2042160" y="259080"/>
+          <a:ext cx="731520" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>せんたく</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2473,71 +4898,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="角丸四角形 47"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3360420" y="1150620"/>
-          <a:ext cx="822960" cy="281940"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>じゃんる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2804,7 +5164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AA31"/>
+  <dimension ref="B2:AE31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2812,7 +5172,7 @@
   <sheetData>
     <row r="2" spans="2:27">
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2908,41 +5268,38 @@
     </row>
     <row r="7" spans="2:27">
       <c r="B7" s="4"/>
-      <c r="F7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="10"/>
+      <c r="E7" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="57"/>
       <c r="AA7" s="6"/>
     </row>
     <row r="8" spans="2:27" s="16" customFormat="1">
       <c r="B8" s="14"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
@@ -2955,85 +5312,39 @@
     <row r="9" spans="2:27" s="16" customFormat="1">
       <c r="B9" s="14"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="12"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
       <c r="AA9" s="15"/>
     </row>
     <row r="10" spans="2:27">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
       <c r="AA10" s="6"/>
     </row>
     <row r="11" spans="2:27">
       <c r="B11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="32"/>
       <c r="AA11" s="6"/>
     </row>
     <row r="12" spans="2:27">
       <c r="B12" s="4"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="35"/>
       <c r="AA12" s="6"/>
     </row>
     <row r="13" spans="2:27">
@@ -3042,7 +5353,6 @@
     </row>
     <row r="14" spans="2:27">
       <c r="B14" s="4"/>
-      <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
@@ -3062,54 +5372,54 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="6"/>
     </row>
-    <row r="17" spans="2:27">
+    <row r="17" spans="2:31">
       <c r="B17" s="4"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="6"/>
     </row>
-    <row r="18" spans="2:27">
+    <row r="18" spans="2:31">
       <c r="B18" s="4"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="6"/>
     </row>
-    <row r="19" spans="2:27">
+    <row r="19" spans="2:31">
       <c r="B19" s="4"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="6"/>
     </row>
-    <row r="20" spans="2:27">
+    <row r="20" spans="2:31">
       <c r="B20" s="4"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="6"/>
     </row>
-    <row r="21" spans="2:27">
+    <row r="21" spans="2:31">
       <c r="B21" s="4"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="6"/>
     </row>
-    <row r="22" spans="2:27">
+    <row r="22" spans="2:31">
       <c r="B22" s="4"/>
       <c r="AA22" s="6"/>
     </row>
-    <row r="23" spans="2:27">
+    <row r="23" spans="2:31">
       <c r="B23" s="4"/>
       <c r="AA23" s="6"/>
     </row>
-    <row r="24" spans="2:27">
+    <row r="24" spans="2:31">
       <c r="B24" s="4"/>
       <c r="AA24" s="6"/>
     </row>
-    <row r="25" spans="2:27">
+    <row r="25" spans="2:31">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -3130,7 +5440,7 @@
       <c r="S25" s="5"/>
       <c r="AA25" s="6"/>
     </row>
-    <row r="26" spans="2:27">
+    <row r="26" spans="2:31">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -3151,125 +5461,128 @@
       <c r="S26" s="5"/>
       <c r="AA26" s="6"/>
     </row>
-    <row r="27" spans="2:27">
+    <row r="27" spans="2:31">
       <c r="B27" s="4"/>
-      <c r="C27" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="38"/>
+      <c r="C27" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="41"/>
       <c r="AA27" s="6"/>
-    </row>
-    <row r="28" spans="2:27">
+      <c r="AE27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31">
       <c r="B28" s="4"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="44"/>
       <c r="AA28" s="6"/>
     </row>
-    <row r="29" spans="2:27">
+    <row r="29" spans="2:31">
       <c r="B29" s="4"/>
-      <c r="C29" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="36" t="s">
+      <c r="C29" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="38"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="41"/>
       <c r="AA29" s="6"/>
     </row>
-    <row r="30" spans="2:27">
+    <row r="30" spans="2:31">
       <c r="B30" s="4"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="44"/>
       <c r="AA30" s="6"/>
     </row>
-    <row r="31" spans="2:27">
+    <row r="31" spans="2:31">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -3298,20 +5611,4285 @@
       <c r="AA31" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="P11:W12"/>
+  <mergeCells count="3">
     <mergeCell ref="C29:N30"/>
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="C27:Z28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AS31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ17" sqref="AQ17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="2" spans="2:45">
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="2:45">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="6"/>
+    </row>
+    <row r="4" spans="2:45">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="6"/>
+      <c r="X4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:45">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="2:45">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="2:45">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="6"/>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:45" s="16" customFormat="1">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="15"/>
+      <c r="AB8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS8" s="30"/>
+    </row>
+    <row r="9" spans="2:45" s="16" customFormat="1">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="15"/>
+      <c r="AB9" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:45">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="6"/>
+      <c r="AS10" s="32"/>
+    </row>
+    <row r="11" spans="2:45">
+      <c r="B11" s="14"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="2:45">
+      <c r="B12" s="14"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="6"/>
+      <c r="AS12" s="32"/>
+    </row>
+    <row r="13" spans="2:45">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="2:45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="6"/>
+      <c r="AS14" s="32"/>
+    </row>
+    <row r="15" spans="2:45">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="2:45">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="6"/>
+      <c r="AS16" s="32"/>
+    </row>
+    <row r="17" spans="2:45">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="2:45">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="6"/>
+      <c r="AS18" s="32"/>
+    </row>
+    <row r="19" spans="2:45">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="2:45">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="2:45">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="2:45">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="2:45">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="2:45">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="2:45">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="2:45">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="2:45">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="2:45">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="2:45">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="2:45">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="2:45">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AN40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX23" sqref="AX23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="2" spans="2:39">
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="3"/>
+    </row>
+    <row r="3" spans="2:39">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="6"/>
+    </row>
+    <row r="4" spans="2:39">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="6"/>
+    </row>
+    <row r="5" spans="2:39">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="6"/>
+    </row>
+    <row r="6" spans="2:39">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="6"/>
+    </row>
+    <row r="7" spans="2:39">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="6"/>
+    </row>
+    <row r="8" spans="2:39" s="16" customFormat="1">
+      <c r="B8" s="14"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="15"/>
+    </row>
+    <row r="9" spans="2:39" s="16" customFormat="1">
+      <c r="B9" s="14"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="15"/>
+    </row>
+    <row r="10" spans="2:39">
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="29"/>
+    </row>
+    <row r="11" spans="2:39">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="6"/>
+    </row>
+    <row r="12" spans="2:39">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="6"/>
+    </row>
+    <row r="13" spans="2:39">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="6"/>
+    </row>
+    <row r="14" spans="2:39">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="6"/>
+    </row>
+    <row r="15" spans="2:39">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="6"/>
+    </row>
+    <row r="16" spans="2:39">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="6"/>
+    </row>
+    <row r="17" spans="2:40">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="6"/>
+    </row>
+    <row r="18" spans="2:40">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="6"/>
+    </row>
+    <row r="19" spans="2:40">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="6"/>
+    </row>
+    <row r="20" spans="2:40">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="5"/>
+    </row>
+    <row r="21" spans="2:40">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="5"/>
+    </row>
+    <row r="22" spans="2:40">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="5"/>
+    </row>
+    <row r="23" spans="2:40">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="5"/>
+    </row>
+    <row r="24" spans="2:40">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="5"/>
+    </row>
+    <row r="25" spans="2:40">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="5"/>
+    </row>
+    <row r="26" spans="2:40">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="5"/>
+    </row>
+    <row r="27" spans="2:40">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="5"/>
+    </row>
+    <row r="28" spans="2:40">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="5"/>
+    </row>
+    <row r="29" spans="2:40">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="5"/>
+    </row>
+    <row r="30" spans="2:40">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="5"/>
+    </row>
+    <row r="31" spans="2:40">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="6"/>
+    </row>
+    <row r="32" spans="2:40">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="6"/>
+    </row>
+    <row r="33" spans="2:39">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="6"/>
+    </row>
+    <row r="34" spans="2:39">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="6"/>
+    </row>
+    <row r="35" spans="2:39">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="6"/>
+    </row>
+    <row r="36" spans="2:39">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="6"/>
+    </row>
+    <row r="37" spans="2:39">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="6"/>
+    </row>
+    <row r="38" spans="2:39">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="6"/>
+    </row>
+    <row r="39" spans="2:39">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="6"/>
+    </row>
+    <row r="40" spans="2:39">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
+      <c r="AM40" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AF25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="2" spans="2:32">
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="3"/>
+    </row>
+    <row r="3" spans="2:32">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="6"/>
+    </row>
+    <row r="4" spans="2:32">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="6"/>
+      <c r="AF4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="6"/>
+    </row>
+    <row r="6" spans="2:32">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="6"/>
+    </row>
+    <row r="7" spans="2:32">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="6"/>
+    </row>
+    <row r="8" spans="2:32">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="6"/>
+      <c r="AF8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" s="16" customFormat="1">
+      <c r="B9" s="14"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="15"/>
+      <c r="AF9" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" s="16" customFormat="1">
+      <c r="B10" s="14"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="15"/>
+    </row>
+    <row r="11" spans="2:32">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="6"/>
+    </row>
+    <row r="12" spans="2:32">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="6"/>
+    </row>
+    <row r="13" spans="2:32">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="6"/>
+    </row>
+    <row r="14" spans="2:32">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="6"/>
+    </row>
+    <row r="15" spans="2:32">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="6"/>
+    </row>
+    <row r="16" spans="2:32">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="6"/>
+    </row>
+    <row r="17" spans="2:31">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="6"/>
+    </row>
+    <row r="18" spans="2:31">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="6"/>
+    </row>
+    <row r="19" spans="2:31">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="6"/>
+    </row>
+    <row r="20" spans="2:31">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="6"/>
+    </row>
+    <row r="21" spans="2:31">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" s="24"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+    </row>
+    <row r="22" spans="2:31">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+    </row>
+    <row r="23" spans="2:31">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+    </row>
+    <row r="24" spans="2:31">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+    </row>
+    <row r="25" spans="2:31">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AV23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN14" sqref="AN14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="2" spans="2:48">
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="2:48">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="6"/>
+    </row>
+    <row r="4" spans="2:48">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="6"/>
+    </row>
+    <row r="5" spans="2:48" s="16" customFormat="1">
+      <c r="B5" s="14"/>
+      <c r="C5" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="15"/>
+      <c r="AV5" s="30"/>
+    </row>
+    <row r="6" spans="2:48" s="16" customFormat="1">
+      <c r="B6" s="14"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="15"/>
+    </row>
+    <row r="7" spans="2:48">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" spans="2:48">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="6"/>
+      <c r="AV8" s="32"/>
+    </row>
+    <row r="9" spans="2:48">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" spans="2:48">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="2:48">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="6"/>
+      <c r="AV11" s="32"/>
+    </row>
+    <row r="12" spans="2:48">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="2:48">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="2:48">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="2:48">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="2:48">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="6"/>
+    </row>
+    <row r="18" spans="2:23">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="2:23">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="6"/>
+    </row>
+    <row r="21" spans="2:23">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AD25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AL15" sqref="AL15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="2" spans="2:30">
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3" spans="2:30">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="6"/>
+    </row>
+    <row r="4" spans="2:30">
+      <c r="B4" s="4"/>
+      <c r="C4" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="6"/>
+    </row>
+    <row r="5" spans="2:30">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="AD5" s="6"/>
+    </row>
+    <row r="6" spans="2:30">
+      <c r="B6" s="4"/>
+      <c r="C6" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="35"/>
+      <c r="AD6" s="6"/>
+    </row>
+    <row r="7" spans="2:30">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="3"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="6"/>
+    </row>
+    <row r="8" spans="2:30">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="6"/>
+      <c r="AD8" s="6"/>
+    </row>
+    <row r="9" spans="2:30" s="16" customFormat="1">
+      <c r="B9" s="14"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="6"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AD9" s="15"/>
+    </row>
+    <row r="10" spans="2:30" s="16" customFormat="1">
+      <c r="B10" s="14"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="6"/>
+      <c r="AD10" s="15"/>
+    </row>
+    <row r="11" spans="2:30">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="6"/>
+    </row>
+    <row r="12" spans="2:30">
+      <c r="B12" s="4"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="9"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="6"/>
+    </row>
+    <row r="13" spans="2:30">
+      <c r="B13" s="4"/>
+      <c r="AD13" s="6"/>
+    </row>
+    <row r="14" spans="2:30">
+      <c r="B14" s="4"/>
+      <c r="C14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="35"/>
+      <c r="AD14" s="6"/>
+    </row>
+    <row r="15" spans="2:30">
+      <c r="B15" s="4"/>
+      <c r="C15" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="6"/>
+    </row>
+    <row r="16" spans="2:30">
+      <c r="B16" s="4"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="9"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="6"/>
+    </row>
+    <row r="17" spans="2:30">
+      <c r="B17" s="4"/>
+      <c r="AD17" s="6"/>
+    </row>
+    <row r="18" spans="2:30" s="16" customFormat="1">
+      <c r="B18" s="14"/>
+      <c r="C18" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AD18" s="15"/>
+    </row>
+    <row r="19" spans="2:30">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="6"/>
+    </row>
+    <row r="20" spans="2:30">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="6"/>
+    </row>
+    <row r="21" spans="2:30">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="6"/>
+    </row>
+    <row r="22" spans="2:30">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="6"/>
+    </row>
+    <row r="23" spans="2:30">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="9"/>
+    </row>
+    <row r="25" spans="2:30">
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C6:V6"/>
+    <mergeCell ref="O21:V22"/>
+    <mergeCell ref="E21:L22"/>
+    <mergeCell ref="C14:V14"/>
+    <mergeCell ref="C18:I18"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CJ40"/>
   <sheetViews>
@@ -3321,7 +9899,7 @@
   <sheetData>
     <row r="2" spans="2:86">
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3342,7 +9920,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="3"/>
       <c r="U2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
@@ -3382,7 +9960,7 @@
       <c r="BE2" s="2"/>
       <c r="BF2" s="3"/>
       <c r="BG2" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="BH2" s="2"/>
       <c r="BI2" s="2"/>
@@ -3563,7 +10141,7 @@
       <c r="BJ4" s="5"/>
       <c r="BK4" s="5"/>
       <c r="BL4" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="BM4" s="5"/>
       <c r="BN4" s="5"/>
@@ -3743,7 +10321,7 @@
       <c r="BN6" s="5"/>
       <c r="BO6" s="24"/>
       <c r="BP6" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="BQ6" s="5"/>
       <c r="BR6" s="5"/>
@@ -3832,7 +10410,7 @@
       <c r="BN7" s="5"/>
       <c r="BO7" s="5"/>
       <c r="BP7" s="25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="BQ7" s="24"/>
       <c r="BR7" s="5"/>
@@ -3858,8 +10436,8 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="56" t="s">
-        <v>57</v>
+      <c r="F8" s="30" t="s">
+        <v>52</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -3923,7 +10501,7 @@
       <c r="BN8" s="22"/>
       <c r="BO8" s="22"/>
       <c r="BP8" s="23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="BQ8" s="5"/>
       <c r="BR8" s="22"/>
@@ -4036,9 +10614,9 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="57"/>
+        <v>54</v>
+      </c>
+      <c r="F10" s="31"/>
       <c r="G10" s="24"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -4053,44 +10631,44 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="6"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="51"/>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="51"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="51"/>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="51"/>
-      <c r="AT10" s="51"/>
-      <c r="AU10" s="51"/>
-      <c r="AV10" s="51"/>
-      <c r="AW10" s="51"/>
-      <c r="AX10" s="51"/>
-      <c r="AY10" s="51"/>
-      <c r="AZ10" s="51"/>
-      <c r="BA10" s="51"/>
-      <c r="BB10" s="51"/>
-      <c r="BC10" s="51"/>
-      <c r="BD10" s="51"/>
-      <c r="BE10" s="51"/>
-      <c r="BF10" s="52"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="28"/>
+      <c r="AT10" s="28"/>
+      <c r="AU10" s="28"/>
+      <c r="AV10" s="28"/>
+      <c r="AW10" s="28"/>
+      <c r="AX10" s="28"/>
+      <c r="AY10" s="28"/>
+      <c r="AZ10" s="28"/>
+      <c r="BA10" s="28"/>
+      <c r="BB10" s="28"/>
+      <c r="BC10" s="28"/>
+      <c r="BD10" s="28"/>
+      <c r="BE10" s="28"/>
+      <c r="BF10" s="29"/>
       <c r="BG10" s="5"/>
       <c r="BH10" s="5"/>
       <c r="BI10" s="5"/>
@@ -4124,10 +10702,10 @@
       <c r="B11" s="14"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="57"/>
+      <c r="E11" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="31"/>
       <c r="G11" s="24"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -4190,7 +10768,7 @@
       <c r="BN11" s="5"/>
       <c r="BO11" s="5"/>
       <c r="BP11" s="21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="BQ11" s="22"/>
       <c r="BR11" s="5"/>
@@ -4215,10 +10793,10 @@
       <c r="B12" s="14"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="57"/>
+      <c r="E12" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="31"/>
       <c r="G12" s="24"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -4238,7 +10816,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
@@ -4283,7 +10861,7 @@
       <c r="BN12" s="5"/>
       <c r="BO12" s="5"/>
       <c r="BP12" s="26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BQ12" s="5"/>
       <c r="BR12" s="5"/>
@@ -4329,7 +10907,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
@@ -4374,7 +10952,7 @@
       <c r="BN13" s="5"/>
       <c r="BO13" s="5"/>
       <c r="BP13" s="23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="BQ13" s="5"/>
       <c r="BR13" s="5"/>
@@ -4400,8 +10978,8 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="58" t="s">
-        <v>61</v>
+      <c r="F14" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -4422,7 +11000,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
@@ -4578,7 +11156,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -4639,7 +11217,7 @@
       <c r="BJ16" s="5"/>
       <c r="BK16" s="5"/>
       <c r="BL16" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="BM16" s="5"/>
       <c r="BN16" s="5"/>
@@ -4843,8 +11421,8 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="58" t="s">
-        <v>62</v>
+      <c r="F19" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -4908,7 +11486,7 @@
       <c r="BN19" s="5"/>
       <c r="BO19" s="24"/>
       <c r="BP19" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="BQ19" s="5"/>
       <c r="BR19" s="5"/>
@@ -4997,7 +11575,7 @@
       <c r="BN20" s="5"/>
       <c r="BO20" s="5"/>
       <c r="BP20" s="25" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="BQ20" s="24"/>
       <c r="BR20" s="5"/>
@@ -5088,7 +11666,7 @@
       <c r="BN21" s="22"/>
       <c r="BO21" s="22"/>
       <c r="BP21" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="BQ21" s="5"/>
       <c r="BR21" s="22"/>
@@ -5116,8 +11694,8 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="58" t="s">
-        <v>63</v>
+      <c r="F22" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -5385,8 +11963,8 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="58" t="s">
-        <v>64</v>
+      <c r="F25" s="32" t="s">
+        <v>59</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -5440,36 +12018,36 @@
       <c r="BD25" s="5"/>
       <c r="BE25" s="5"/>
       <c r="BF25" s="6"/>
-      <c r="BG25" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH25" s="37"/>
-      <c r="BI25" s="37"/>
-      <c r="BJ25" s="37"/>
-      <c r="BK25" s="37"/>
-      <c r="BL25" s="37"/>
-      <c r="BM25" s="37"/>
-      <c r="BN25" s="37"/>
-      <c r="BO25" s="37"/>
-      <c r="BP25" s="37"/>
-      <c r="BQ25" s="37"/>
-      <c r="BR25" s="37"/>
-      <c r="BS25" s="37"/>
-      <c r="BT25" s="37"/>
-      <c r="BU25" s="37"/>
-      <c r="BV25" s="37"/>
-      <c r="BW25" s="37"/>
-      <c r="BX25" s="37"/>
-      <c r="BY25" s="37"/>
-      <c r="BZ25" s="37"/>
-      <c r="CA25" s="37"/>
-      <c r="CB25" s="37"/>
-      <c r="CC25" s="37"/>
-      <c r="CD25" s="37"/>
-      <c r="CE25" s="37"/>
-      <c r="CF25" s="37"/>
-      <c r="CG25" s="37"/>
-      <c r="CH25" s="38"/>
+      <c r="BG25" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH25" s="40"/>
+      <c r="BI25" s="40"/>
+      <c r="BJ25" s="40"/>
+      <c r="BK25" s="40"/>
+      <c r="BL25" s="40"/>
+      <c r="BM25" s="40"/>
+      <c r="BN25" s="40"/>
+      <c r="BO25" s="40"/>
+      <c r="BP25" s="40"/>
+      <c r="BQ25" s="40"/>
+      <c r="BR25" s="40"/>
+      <c r="BS25" s="40"/>
+      <c r="BT25" s="40"/>
+      <c r="BU25" s="40"/>
+      <c r="BV25" s="40"/>
+      <c r="BW25" s="40"/>
+      <c r="BX25" s="40"/>
+      <c r="BY25" s="40"/>
+      <c r="BZ25" s="40"/>
+      <c r="CA25" s="40"/>
+      <c r="CB25" s="40"/>
+      <c r="CC25" s="40"/>
+      <c r="CD25" s="40"/>
+      <c r="CE25" s="40"/>
+      <c r="CF25" s="40"/>
+      <c r="CG25" s="40"/>
+      <c r="CH25" s="41"/>
       <c r="CI25" s="5"/>
       <c r="CJ25" s="5"/>
     </row>
@@ -5531,34 +12109,34 @@
       <c r="BD26" s="5"/>
       <c r="BE26" s="5"/>
       <c r="BF26" s="6"/>
-      <c r="BG26" s="53"/>
-      <c r="BH26" s="54"/>
-      <c r="BI26" s="54"/>
-      <c r="BJ26" s="54"/>
-      <c r="BK26" s="54"/>
-      <c r="BL26" s="54"/>
-      <c r="BM26" s="54"/>
-      <c r="BN26" s="54"/>
-      <c r="BO26" s="54"/>
-      <c r="BP26" s="54"/>
-      <c r="BQ26" s="54"/>
-      <c r="BR26" s="54"/>
-      <c r="BS26" s="54"/>
-      <c r="BT26" s="54"/>
-      <c r="BU26" s="54"/>
-      <c r="BV26" s="54"/>
-      <c r="BW26" s="54"/>
-      <c r="BX26" s="54"/>
-      <c r="BY26" s="54"/>
-      <c r="BZ26" s="54"/>
-      <c r="CA26" s="54"/>
-      <c r="CB26" s="54"/>
-      <c r="CC26" s="54"/>
-      <c r="CD26" s="54"/>
-      <c r="CE26" s="54"/>
-      <c r="CF26" s="54"/>
-      <c r="CG26" s="54"/>
-      <c r="CH26" s="55"/>
+      <c r="BG26" s="45"/>
+      <c r="BH26" s="46"/>
+      <c r="BI26" s="46"/>
+      <c r="BJ26" s="46"/>
+      <c r="BK26" s="46"/>
+      <c r="BL26" s="46"/>
+      <c r="BM26" s="46"/>
+      <c r="BN26" s="46"/>
+      <c r="BO26" s="46"/>
+      <c r="BP26" s="46"/>
+      <c r="BQ26" s="46"/>
+      <c r="BR26" s="46"/>
+      <c r="BS26" s="46"/>
+      <c r="BT26" s="46"/>
+      <c r="BU26" s="46"/>
+      <c r="BV26" s="46"/>
+      <c r="BW26" s="46"/>
+      <c r="BX26" s="46"/>
+      <c r="BY26" s="46"/>
+      <c r="BZ26" s="46"/>
+      <c r="CA26" s="46"/>
+      <c r="CB26" s="46"/>
+      <c r="CC26" s="46"/>
+      <c r="CD26" s="46"/>
+      <c r="CE26" s="46"/>
+      <c r="CF26" s="46"/>
+      <c r="CG26" s="46"/>
+      <c r="CH26" s="47"/>
       <c r="CI26" s="5"/>
       <c r="CJ26" s="5"/>
     </row>
@@ -5567,7 +12145,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -5622,34 +12200,34 @@
       <c r="BD27" s="5"/>
       <c r="BE27" s="5"/>
       <c r="BF27" s="6"/>
-      <c r="BG27" s="53"/>
-      <c r="BH27" s="54"/>
-      <c r="BI27" s="54"/>
-      <c r="BJ27" s="54"/>
-      <c r="BK27" s="54"/>
-      <c r="BL27" s="54"/>
-      <c r="BM27" s="54"/>
-      <c r="BN27" s="54"/>
-      <c r="BO27" s="54"/>
-      <c r="BP27" s="54"/>
-      <c r="BQ27" s="54"/>
-      <c r="BR27" s="54"/>
-      <c r="BS27" s="54"/>
-      <c r="BT27" s="54"/>
-      <c r="BU27" s="54"/>
-      <c r="BV27" s="54"/>
-      <c r="BW27" s="54"/>
-      <c r="BX27" s="54"/>
-      <c r="BY27" s="54"/>
-      <c r="BZ27" s="54"/>
-      <c r="CA27" s="54"/>
-      <c r="CB27" s="54"/>
-      <c r="CC27" s="54"/>
-      <c r="CD27" s="54"/>
-      <c r="CE27" s="54"/>
-      <c r="CF27" s="54"/>
-      <c r="CG27" s="54"/>
-      <c r="CH27" s="55"/>
+      <c r="BG27" s="45"/>
+      <c r="BH27" s="46"/>
+      <c r="BI27" s="46"/>
+      <c r="BJ27" s="46"/>
+      <c r="BK27" s="46"/>
+      <c r="BL27" s="46"/>
+      <c r="BM27" s="46"/>
+      <c r="BN27" s="46"/>
+      <c r="BO27" s="46"/>
+      <c r="BP27" s="46"/>
+      <c r="BQ27" s="46"/>
+      <c r="BR27" s="46"/>
+      <c r="BS27" s="46"/>
+      <c r="BT27" s="46"/>
+      <c r="BU27" s="46"/>
+      <c r="BV27" s="46"/>
+      <c r="BW27" s="46"/>
+      <c r="BX27" s="46"/>
+      <c r="BY27" s="46"/>
+      <c r="BZ27" s="46"/>
+      <c r="CA27" s="46"/>
+      <c r="CB27" s="46"/>
+      <c r="CC27" s="46"/>
+      <c r="CD27" s="46"/>
+      <c r="CE27" s="46"/>
+      <c r="CF27" s="46"/>
+      <c r="CG27" s="46"/>
+      <c r="CH27" s="47"/>
       <c r="CI27" s="5"/>
       <c r="CJ27" s="5"/>
     </row>
@@ -5711,34 +12289,34 @@
       <c r="BD28" s="5"/>
       <c r="BE28" s="5"/>
       <c r="BF28" s="6"/>
-      <c r="BG28" s="39"/>
-      <c r="BH28" s="40"/>
-      <c r="BI28" s="40"/>
-      <c r="BJ28" s="40"/>
-      <c r="BK28" s="40"/>
-      <c r="BL28" s="40"/>
-      <c r="BM28" s="40"/>
-      <c r="BN28" s="40"/>
-      <c r="BO28" s="40"/>
-      <c r="BP28" s="40"/>
-      <c r="BQ28" s="40"/>
-      <c r="BR28" s="40"/>
-      <c r="BS28" s="40"/>
-      <c r="BT28" s="40"/>
-      <c r="BU28" s="40"/>
-      <c r="BV28" s="40"/>
-      <c r="BW28" s="40"/>
-      <c r="BX28" s="40"/>
-      <c r="BY28" s="40"/>
-      <c r="BZ28" s="40"/>
-      <c r="CA28" s="40"/>
-      <c r="CB28" s="40"/>
-      <c r="CC28" s="40"/>
-      <c r="CD28" s="40"/>
-      <c r="CE28" s="40"/>
-      <c r="CF28" s="40"/>
-      <c r="CG28" s="40"/>
-      <c r="CH28" s="41"/>
+      <c r="BG28" s="42"/>
+      <c r="BH28" s="43"/>
+      <c r="BI28" s="43"/>
+      <c r="BJ28" s="43"/>
+      <c r="BK28" s="43"/>
+      <c r="BL28" s="43"/>
+      <c r="BM28" s="43"/>
+      <c r="BN28" s="43"/>
+      <c r="BO28" s="43"/>
+      <c r="BP28" s="43"/>
+      <c r="BQ28" s="43"/>
+      <c r="BR28" s="43"/>
+      <c r="BS28" s="43"/>
+      <c r="BT28" s="43"/>
+      <c r="BU28" s="43"/>
+      <c r="BV28" s="43"/>
+      <c r="BW28" s="43"/>
+      <c r="BX28" s="43"/>
+      <c r="BY28" s="43"/>
+      <c r="BZ28" s="43"/>
+      <c r="CA28" s="43"/>
+      <c r="CB28" s="43"/>
+      <c r="CC28" s="43"/>
+      <c r="CD28" s="43"/>
+      <c r="CE28" s="43"/>
+      <c r="CF28" s="43"/>
+      <c r="CG28" s="43"/>
+      <c r="CH28" s="44"/>
       <c r="CI28" s="5"/>
       <c r="CJ28" s="5"/>
     </row>
@@ -5747,8 +12325,8 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="58" t="s">
-        <v>65</v>
+      <c r="F29" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -5802,36 +12380,36 @@
       <c r="BD29" s="5"/>
       <c r="BE29" s="5"/>
       <c r="BF29" s="6"/>
-      <c r="BG29" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH29" s="37"/>
-      <c r="BI29" s="37"/>
-      <c r="BJ29" s="37"/>
-      <c r="BK29" s="37"/>
-      <c r="BL29" s="37"/>
-      <c r="BM29" s="37"/>
-      <c r="BN29" s="37"/>
-      <c r="BO29" s="37"/>
-      <c r="BP29" s="37"/>
-      <c r="BQ29" s="37"/>
-      <c r="BR29" s="37"/>
-      <c r="BS29" s="37"/>
-      <c r="BT29" s="37"/>
-      <c r="BU29" s="37"/>
-      <c r="BV29" s="37"/>
-      <c r="BW29" s="37"/>
-      <c r="BX29" s="37"/>
-      <c r="BY29" s="37"/>
-      <c r="BZ29" s="37"/>
-      <c r="CA29" s="37"/>
-      <c r="CB29" s="37"/>
-      <c r="CC29" s="37"/>
-      <c r="CD29" s="37"/>
-      <c r="CE29" s="37"/>
-      <c r="CF29" s="37"/>
-      <c r="CG29" s="37"/>
-      <c r="CH29" s="38"/>
+      <c r="BG29" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH29" s="40"/>
+      <c r="BI29" s="40"/>
+      <c r="BJ29" s="40"/>
+      <c r="BK29" s="40"/>
+      <c r="BL29" s="40"/>
+      <c r="BM29" s="40"/>
+      <c r="BN29" s="40"/>
+      <c r="BO29" s="40"/>
+      <c r="BP29" s="40"/>
+      <c r="BQ29" s="40"/>
+      <c r="BR29" s="40"/>
+      <c r="BS29" s="40"/>
+      <c r="BT29" s="40"/>
+      <c r="BU29" s="40"/>
+      <c r="BV29" s="40"/>
+      <c r="BW29" s="40"/>
+      <c r="BX29" s="40"/>
+      <c r="BY29" s="40"/>
+      <c r="BZ29" s="40"/>
+      <c r="CA29" s="40"/>
+      <c r="CB29" s="40"/>
+      <c r="CC29" s="40"/>
+      <c r="CD29" s="40"/>
+      <c r="CE29" s="40"/>
+      <c r="CF29" s="40"/>
+      <c r="CG29" s="40"/>
+      <c r="CH29" s="41"/>
       <c r="CI29" s="5"/>
       <c r="CJ29" s="5"/>
     </row>
@@ -5893,34 +12471,34 @@
       <c r="BD30" s="5"/>
       <c r="BE30" s="5"/>
       <c r="BF30" s="6"/>
-      <c r="BG30" s="53"/>
-      <c r="BH30" s="54"/>
-      <c r="BI30" s="54"/>
-      <c r="BJ30" s="54"/>
-      <c r="BK30" s="54"/>
-      <c r="BL30" s="54"/>
-      <c r="BM30" s="54"/>
-      <c r="BN30" s="54"/>
-      <c r="BO30" s="54"/>
-      <c r="BP30" s="54"/>
-      <c r="BQ30" s="54"/>
-      <c r="BR30" s="54"/>
-      <c r="BS30" s="54"/>
-      <c r="BT30" s="54"/>
-      <c r="BU30" s="54"/>
-      <c r="BV30" s="54"/>
-      <c r="BW30" s="54"/>
-      <c r="BX30" s="54"/>
-      <c r="BY30" s="54"/>
-      <c r="BZ30" s="54"/>
-      <c r="CA30" s="54"/>
-      <c r="CB30" s="54"/>
-      <c r="CC30" s="54"/>
-      <c r="CD30" s="54"/>
-      <c r="CE30" s="54"/>
-      <c r="CF30" s="54"/>
-      <c r="CG30" s="54"/>
-      <c r="CH30" s="55"/>
+      <c r="BG30" s="45"/>
+      <c r="BH30" s="46"/>
+      <c r="BI30" s="46"/>
+      <c r="BJ30" s="46"/>
+      <c r="BK30" s="46"/>
+      <c r="BL30" s="46"/>
+      <c r="BM30" s="46"/>
+      <c r="BN30" s="46"/>
+      <c r="BO30" s="46"/>
+      <c r="BP30" s="46"/>
+      <c r="BQ30" s="46"/>
+      <c r="BR30" s="46"/>
+      <c r="BS30" s="46"/>
+      <c r="BT30" s="46"/>
+      <c r="BU30" s="46"/>
+      <c r="BV30" s="46"/>
+      <c r="BW30" s="46"/>
+      <c r="BX30" s="46"/>
+      <c r="BY30" s="46"/>
+      <c r="BZ30" s="46"/>
+      <c r="CA30" s="46"/>
+      <c r="CB30" s="46"/>
+      <c r="CC30" s="46"/>
+      <c r="CD30" s="46"/>
+      <c r="CE30" s="46"/>
+      <c r="CF30" s="46"/>
+      <c r="CG30" s="46"/>
+      <c r="CH30" s="47"/>
       <c r="CI30" s="5"/>
       <c r="CJ30" s="5"/>
     </row>
@@ -5982,34 +12560,34 @@
       <c r="BD31" s="5"/>
       <c r="BE31" s="5"/>
       <c r="BF31" s="6"/>
-      <c r="BG31" s="53"/>
-      <c r="BH31" s="54"/>
-      <c r="BI31" s="54"/>
-      <c r="BJ31" s="54"/>
-      <c r="BK31" s="54"/>
-      <c r="BL31" s="54"/>
-      <c r="BM31" s="54"/>
-      <c r="BN31" s="54"/>
-      <c r="BO31" s="54"/>
-      <c r="BP31" s="54"/>
-      <c r="BQ31" s="54"/>
-      <c r="BR31" s="54"/>
-      <c r="BS31" s="54"/>
-      <c r="BT31" s="54"/>
-      <c r="BU31" s="54"/>
-      <c r="BV31" s="54"/>
-      <c r="BW31" s="54"/>
-      <c r="BX31" s="54"/>
-      <c r="BY31" s="54"/>
-      <c r="BZ31" s="54"/>
-      <c r="CA31" s="54"/>
-      <c r="CB31" s="54"/>
-      <c r="CC31" s="54"/>
-      <c r="CD31" s="54"/>
-      <c r="CE31" s="54"/>
-      <c r="CF31" s="54"/>
-      <c r="CG31" s="54"/>
-      <c r="CH31" s="55"/>
+      <c r="BG31" s="45"/>
+      <c r="BH31" s="46"/>
+      <c r="BI31" s="46"/>
+      <c r="BJ31" s="46"/>
+      <c r="BK31" s="46"/>
+      <c r="BL31" s="46"/>
+      <c r="BM31" s="46"/>
+      <c r="BN31" s="46"/>
+      <c r="BO31" s="46"/>
+      <c r="BP31" s="46"/>
+      <c r="BQ31" s="46"/>
+      <c r="BR31" s="46"/>
+      <c r="BS31" s="46"/>
+      <c r="BT31" s="46"/>
+      <c r="BU31" s="46"/>
+      <c r="BV31" s="46"/>
+      <c r="BW31" s="46"/>
+      <c r="BX31" s="46"/>
+      <c r="BY31" s="46"/>
+      <c r="BZ31" s="46"/>
+      <c r="CA31" s="46"/>
+      <c r="CB31" s="46"/>
+      <c r="CC31" s="46"/>
+      <c r="CD31" s="46"/>
+      <c r="CE31" s="46"/>
+      <c r="CF31" s="46"/>
+      <c r="CG31" s="46"/>
+      <c r="CH31" s="47"/>
     </row>
     <row r="32" spans="2:88">
       <c r="U32" s="4"/>
@@ -6050,34 +12628,34 @@
       <c r="BD32" s="5"/>
       <c r="BE32" s="5"/>
       <c r="BF32" s="6"/>
-      <c r="BG32" s="39"/>
-      <c r="BH32" s="40"/>
-      <c r="BI32" s="40"/>
-      <c r="BJ32" s="40"/>
-      <c r="BK32" s="40"/>
-      <c r="BL32" s="40"/>
-      <c r="BM32" s="40"/>
-      <c r="BN32" s="40"/>
-      <c r="BO32" s="40"/>
-      <c r="BP32" s="40"/>
-      <c r="BQ32" s="40"/>
-      <c r="BR32" s="40"/>
-      <c r="BS32" s="40"/>
-      <c r="BT32" s="40"/>
-      <c r="BU32" s="40"/>
-      <c r="BV32" s="40"/>
-      <c r="BW32" s="40"/>
-      <c r="BX32" s="40"/>
-      <c r="BY32" s="40"/>
-      <c r="BZ32" s="40"/>
-      <c r="CA32" s="40"/>
-      <c r="CB32" s="40"/>
-      <c r="CC32" s="40"/>
-      <c r="CD32" s="40"/>
-      <c r="CE32" s="40"/>
-      <c r="CF32" s="40"/>
-      <c r="CG32" s="40"/>
-      <c r="CH32" s="41"/>
+      <c r="BG32" s="42"/>
+      <c r="BH32" s="43"/>
+      <c r="BI32" s="43"/>
+      <c r="BJ32" s="43"/>
+      <c r="BK32" s="43"/>
+      <c r="BL32" s="43"/>
+      <c r="BM32" s="43"/>
+      <c r="BN32" s="43"/>
+      <c r="BO32" s="43"/>
+      <c r="BP32" s="43"/>
+      <c r="BQ32" s="43"/>
+      <c r="BR32" s="43"/>
+      <c r="BS32" s="43"/>
+      <c r="BT32" s="43"/>
+      <c r="BU32" s="43"/>
+      <c r="BV32" s="43"/>
+      <c r="BW32" s="43"/>
+      <c r="BX32" s="43"/>
+      <c r="BY32" s="43"/>
+      <c r="BZ32" s="43"/>
+      <c r="CA32" s="43"/>
+      <c r="CB32" s="43"/>
+      <c r="CC32" s="43"/>
+      <c r="CD32" s="43"/>
+      <c r="CE32" s="43"/>
+      <c r="CF32" s="43"/>
+      <c r="CG32" s="43"/>
+      <c r="CH32" s="44"/>
     </row>
     <row r="33" spans="21:86">
       <c r="U33" s="4"/>
@@ -6118,36 +12696,36 @@
       <c r="BD33" s="5"/>
       <c r="BE33" s="5"/>
       <c r="BF33" s="6"/>
-      <c r="BG33" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="BH33" s="37"/>
-      <c r="BI33" s="37"/>
-      <c r="BJ33" s="37"/>
-      <c r="BK33" s="37"/>
-      <c r="BL33" s="37"/>
-      <c r="BM33" s="37"/>
-      <c r="BN33" s="37"/>
-      <c r="BO33" s="37"/>
-      <c r="BP33" s="37"/>
-      <c r="BQ33" s="37"/>
-      <c r="BR33" s="37"/>
-      <c r="BS33" s="37"/>
-      <c r="BT33" s="37"/>
-      <c r="BU33" s="37"/>
-      <c r="BV33" s="37"/>
-      <c r="BW33" s="37"/>
-      <c r="BX33" s="37"/>
-      <c r="BY33" s="37"/>
-      <c r="BZ33" s="37"/>
-      <c r="CA33" s="37"/>
-      <c r="CB33" s="37"/>
-      <c r="CC33" s="37"/>
-      <c r="CD33" s="37"/>
-      <c r="CE33" s="37"/>
-      <c r="CF33" s="37"/>
-      <c r="CG33" s="37"/>
-      <c r="CH33" s="38"/>
+      <c r="BG33" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH33" s="40"/>
+      <c r="BI33" s="40"/>
+      <c r="BJ33" s="40"/>
+      <c r="BK33" s="40"/>
+      <c r="BL33" s="40"/>
+      <c r="BM33" s="40"/>
+      <c r="BN33" s="40"/>
+      <c r="BO33" s="40"/>
+      <c r="BP33" s="40"/>
+      <c r="BQ33" s="40"/>
+      <c r="BR33" s="40"/>
+      <c r="BS33" s="40"/>
+      <c r="BT33" s="40"/>
+      <c r="BU33" s="40"/>
+      <c r="BV33" s="40"/>
+      <c r="BW33" s="40"/>
+      <c r="BX33" s="40"/>
+      <c r="BY33" s="40"/>
+      <c r="BZ33" s="40"/>
+      <c r="CA33" s="40"/>
+      <c r="CB33" s="40"/>
+      <c r="CC33" s="40"/>
+      <c r="CD33" s="40"/>
+      <c r="CE33" s="40"/>
+      <c r="CF33" s="40"/>
+      <c r="CG33" s="40"/>
+      <c r="CH33" s="41"/>
     </row>
     <row r="34" spans="21:86">
       <c r="U34" s="4"/>
@@ -6155,7 +12733,7 @@
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
@@ -6190,34 +12768,34 @@
       <c r="BD34" s="5"/>
       <c r="BE34" s="5"/>
       <c r="BF34" s="6"/>
-      <c r="BG34" s="53"/>
-      <c r="BH34" s="54"/>
-      <c r="BI34" s="54"/>
-      <c r="BJ34" s="54"/>
-      <c r="BK34" s="54"/>
-      <c r="BL34" s="54"/>
-      <c r="BM34" s="54"/>
-      <c r="BN34" s="54"/>
-      <c r="BO34" s="54"/>
-      <c r="BP34" s="54"/>
-      <c r="BQ34" s="54"/>
-      <c r="BR34" s="54"/>
-      <c r="BS34" s="54"/>
-      <c r="BT34" s="54"/>
-      <c r="BU34" s="54"/>
-      <c r="BV34" s="54"/>
-      <c r="BW34" s="54"/>
-      <c r="BX34" s="54"/>
-      <c r="BY34" s="54"/>
-      <c r="BZ34" s="54"/>
-      <c r="CA34" s="54"/>
-      <c r="CB34" s="54"/>
-      <c r="CC34" s="54"/>
-      <c r="CD34" s="54"/>
-      <c r="CE34" s="54"/>
-      <c r="CF34" s="54"/>
-      <c r="CG34" s="54"/>
-      <c r="CH34" s="55"/>
+      <c r="BG34" s="45"/>
+      <c r="BH34" s="46"/>
+      <c r="BI34" s="46"/>
+      <c r="BJ34" s="46"/>
+      <c r="BK34" s="46"/>
+      <c r="BL34" s="46"/>
+      <c r="BM34" s="46"/>
+      <c r="BN34" s="46"/>
+      <c r="BO34" s="46"/>
+      <c r="BP34" s="46"/>
+      <c r="BQ34" s="46"/>
+      <c r="BR34" s="46"/>
+      <c r="BS34" s="46"/>
+      <c r="BT34" s="46"/>
+      <c r="BU34" s="46"/>
+      <c r="BV34" s="46"/>
+      <c r="BW34" s="46"/>
+      <c r="BX34" s="46"/>
+      <c r="BY34" s="46"/>
+      <c r="BZ34" s="46"/>
+      <c r="CA34" s="46"/>
+      <c r="CB34" s="46"/>
+      <c r="CC34" s="46"/>
+      <c r="CD34" s="46"/>
+      <c r="CE34" s="46"/>
+      <c r="CF34" s="46"/>
+      <c r="CG34" s="46"/>
+      <c r="CH34" s="47"/>
     </row>
     <row r="35" spans="21:86">
       <c r="U35" s="4"/>
@@ -6225,7 +12803,7 @@
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
@@ -6260,34 +12838,34 @@
       <c r="BD35" s="5"/>
       <c r="BE35" s="5"/>
       <c r="BF35" s="6"/>
-      <c r="BG35" s="53"/>
-      <c r="BH35" s="54"/>
-      <c r="BI35" s="54"/>
-      <c r="BJ35" s="54"/>
-      <c r="BK35" s="54"/>
-      <c r="BL35" s="54"/>
-      <c r="BM35" s="54"/>
-      <c r="BN35" s="54"/>
-      <c r="BO35" s="54"/>
-      <c r="BP35" s="54"/>
-      <c r="BQ35" s="54"/>
-      <c r="BR35" s="54"/>
-      <c r="BS35" s="54"/>
-      <c r="BT35" s="54"/>
-      <c r="BU35" s="54"/>
-      <c r="BV35" s="54"/>
-      <c r="BW35" s="54"/>
-      <c r="BX35" s="54"/>
-      <c r="BY35" s="54"/>
-      <c r="BZ35" s="54"/>
-      <c r="CA35" s="54"/>
-      <c r="CB35" s="54"/>
-      <c r="CC35" s="54"/>
-      <c r="CD35" s="54"/>
-      <c r="CE35" s="54"/>
-      <c r="CF35" s="54"/>
-      <c r="CG35" s="54"/>
-      <c r="CH35" s="55"/>
+      <c r="BG35" s="45"/>
+      <c r="BH35" s="46"/>
+      <c r="BI35" s="46"/>
+      <c r="BJ35" s="46"/>
+      <c r="BK35" s="46"/>
+      <c r="BL35" s="46"/>
+      <c r="BM35" s="46"/>
+      <c r="BN35" s="46"/>
+      <c r="BO35" s="46"/>
+      <c r="BP35" s="46"/>
+      <c r="BQ35" s="46"/>
+      <c r="BR35" s="46"/>
+      <c r="BS35" s="46"/>
+      <c r="BT35" s="46"/>
+      <c r="BU35" s="46"/>
+      <c r="BV35" s="46"/>
+      <c r="BW35" s="46"/>
+      <c r="BX35" s="46"/>
+      <c r="BY35" s="46"/>
+      <c r="BZ35" s="46"/>
+      <c r="CA35" s="46"/>
+      <c r="CB35" s="46"/>
+      <c r="CC35" s="46"/>
+      <c r="CD35" s="46"/>
+      <c r="CE35" s="46"/>
+      <c r="CF35" s="46"/>
+      <c r="CG35" s="46"/>
+      <c r="CH35" s="47"/>
     </row>
     <row r="36" spans="21:86">
       <c r="U36" s="4"/>
@@ -6295,7 +12873,7 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
@@ -6330,34 +12908,34 @@
       <c r="BD36" s="5"/>
       <c r="BE36" s="5"/>
       <c r="BF36" s="6"/>
-      <c r="BG36" s="39"/>
-      <c r="BH36" s="40"/>
-      <c r="BI36" s="40"/>
-      <c r="BJ36" s="40"/>
-      <c r="BK36" s="40"/>
-      <c r="BL36" s="40"/>
-      <c r="BM36" s="40"/>
-      <c r="BN36" s="40"/>
-      <c r="BO36" s="40"/>
-      <c r="BP36" s="40"/>
-      <c r="BQ36" s="40"/>
-      <c r="BR36" s="40"/>
-      <c r="BS36" s="40"/>
-      <c r="BT36" s="40"/>
-      <c r="BU36" s="40"/>
-      <c r="BV36" s="40"/>
-      <c r="BW36" s="40"/>
-      <c r="BX36" s="40"/>
-      <c r="BY36" s="40"/>
-      <c r="BZ36" s="40"/>
-      <c r="CA36" s="40"/>
-      <c r="CB36" s="40"/>
-      <c r="CC36" s="40"/>
-      <c r="CD36" s="40"/>
-      <c r="CE36" s="40"/>
-      <c r="CF36" s="40"/>
-      <c r="CG36" s="40"/>
-      <c r="CH36" s="41"/>
+      <c r="BG36" s="42"/>
+      <c r="BH36" s="43"/>
+      <c r="BI36" s="43"/>
+      <c r="BJ36" s="43"/>
+      <c r="BK36" s="43"/>
+      <c r="BL36" s="43"/>
+      <c r="BM36" s="43"/>
+      <c r="BN36" s="43"/>
+      <c r="BO36" s="43"/>
+      <c r="BP36" s="43"/>
+      <c r="BQ36" s="43"/>
+      <c r="BR36" s="43"/>
+      <c r="BS36" s="43"/>
+      <c r="BT36" s="43"/>
+      <c r="BU36" s="43"/>
+      <c r="BV36" s="43"/>
+      <c r="BW36" s="43"/>
+      <c r="BX36" s="43"/>
+      <c r="BY36" s="43"/>
+      <c r="BZ36" s="43"/>
+      <c r="CA36" s="43"/>
+      <c r="CB36" s="43"/>
+      <c r="CC36" s="43"/>
+      <c r="CD36" s="43"/>
+      <c r="CE36" s="43"/>
+      <c r="CF36" s="43"/>
+      <c r="CG36" s="43"/>
+      <c r="CH36" s="44"/>
     </row>
     <row r="37" spans="21:86">
       <c r="U37" s="4"/>
@@ -6532,19 +13110,372 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13">
+        <f t="shared" ref="A5:A11" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="13">
+        <v>3</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="13">
+        <v>10</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="13">
+        <v>10</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="13">
+        <v>3</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="13">
+        <v>7</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="13">
+        <v>10</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="B2:AD25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AQ29" sqref="AQ29"/>
+      <selection activeCell="BQ22" sqref="BQ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="2" spans="2:30">
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -6608,17 +13539,17 @@
     </row>
     <row r="4" spans="2:30">
       <c r="B4" s="4"/>
-      <c r="C4" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
+      <c r="C4" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -6669,34 +13600,34 @@
     </row>
     <row r="6" spans="2:30">
       <c r="B6" s="4"/>
-      <c r="C6" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="29"/>
+      <c r="C6" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="35"/>
       <c r="AD6" s="6"/>
     </row>
     <row r="7" spans="2:30">
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -6726,7 +13657,7 @@
     <row r="8" spans="2:30">
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -6865,34 +13796,34 @@
     </row>
     <row r="14" spans="2:30">
       <c r="B14" s="4"/>
-      <c r="C14" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="29"/>
+      <c r="C14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="35"/>
       <c r="AD14" s="6"/>
     </row>
     <row r="15" spans="2:30">
       <c r="B15" s="4"/>
       <c r="C15" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -6953,17 +13884,17 @@
     </row>
     <row r="18" spans="2:30" s="16" customFormat="1">
       <c r="B18" s="14"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -7031,28 +13962,28 @@
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="44"/>
+      <c r="E21" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="50"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="44"/>
+      <c r="O21" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="50"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
@@ -7066,24 +13997,24 @@
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="35"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="38"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
@@ -7126,369 +14057,19 @@
     </row>
     <row r="25" spans="2:30">
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C6:V6"/>
-    <mergeCell ref="O21:V22"/>
-    <mergeCell ref="E21:L22"/>
     <mergeCell ref="C14:V14"/>
     <mergeCell ref="C18:I18"/>
+    <mergeCell ref="E21:L22"/>
+    <mergeCell ref="O21:V22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="19" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13">
-        <f t="shared" ref="A5:A11" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="13">
-        <v>3</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="13">
-        <v>10</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="13">
-        <v>10</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="13">
-        <v>3</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="13">
-        <v>7</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="13">
-        <v>10</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/01_document/画面定義書.xlsx
+++ b/01_document/画面定義書.xlsx
@@ -13,14 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="5" r:id="rId1"/>
-    <sheet name="イベント画面" sheetId="10" r:id="rId2"/>
-    <sheet name="報告画面" sheetId="12" r:id="rId3"/>
-    <sheet name="目標画面" sheetId="13" r:id="rId4"/>
-    <sheet name="ユーザー選択ダイアログ" sheetId="11" r:id="rId5"/>
-    <sheet name="欲しいものダイアログ" sheetId="7" r:id="rId6"/>
-    <sheet name="PC版メイン画面" sheetId="9" r:id="rId7"/>
-    <sheet name="XXX画面(項目定義)" sheetId="3" r:id="rId8"/>
-    <sheet name="欲しいものダイアログ (2)" sheetId="14" r:id="rId9"/>
+    <sheet name="家族登録画面" sheetId="15" r:id="rId2"/>
+    <sheet name="目標画面" sheetId="13" r:id="rId3"/>
+    <sheet name="イベント画面" sheetId="10" r:id="rId4"/>
+    <sheet name="報告画面" sheetId="12" r:id="rId5"/>
+    <sheet name="家族選択ダイアログ" sheetId="11" r:id="rId6"/>
+    <sheet name="目標登録ダイアログ" sheetId="7" r:id="rId7"/>
+    <sheet name="PC版メイン画面" sheetId="9" r:id="rId8"/>
+    <sheet name="XXX画面(項目定義)" sheetId="3" r:id="rId9"/>
+    <sheet name="欲しいものダイアログ (2)" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="110">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -580,16 +581,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>←クリックすると欲しいものダイアログが開く</t>
-    <rPh sb="8" eb="9">
-      <t>ホ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>←クリックすると欲しいもののURLが別画面で開く(楽天市場)</t>
     <rPh sb="8" eb="9">
       <t>ホ</t>
@@ -615,6 +606,201 @@
     <t>←削除はどうするか？</t>
     <rPh sb="1" eb="3">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かぞく登録</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆいちゃん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おかあさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスを入力するテキストボックスと、検索ボタン、選択ボタンが表示される。</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒別の家族のユーザーを取り込める</t>
+    <rPh sb="1" eb="2">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←①家族登録画面から呼ばれた場合、</t>
+    <rPh sb="2" eb="4">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←②イベント登録画面から呼ばれた場合、</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択ボタンのみが表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←「しんき」で家族を登録できる。</t>
+    <rPh sb="7" eb="9">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン画像を選べる、子供か？大人か？の区別を登録する。</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒公開すると他所の家族から検索・登録可能になる。</t>
+    <rPh sb="1" eb="3">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨソ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人の場合、「公開しない？する」を登録する。子供は非公開。</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ヒコウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←「さがしてとうろく」を押すと、「家族選択ダイアログ」が表示される</t>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←クリックすると目標ダイアログが開く</t>
+    <rPh sb="8" eb="10">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もくひょう登録</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1023,23 +1209,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1059,13 +1239,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,6 +1255,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1091,18 +1289,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1162,13 +1348,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>15704</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1192,7 +1378,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="373380" y="792480"/>
+          <a:off x="373380" y="807720"/>
           <a:ext cx="2690324" cy="1531620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1216,14 +1402,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1232,7 +1418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2171700" y="1836420"/>
+          <a:off x="2171700" y="1859280"/>
           <a:ext cx="914400" cy="449580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1544,10 +1730,989 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="365760" y="2598420"/>
+          <a:ext cx="1005840" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="472440" y="2552700"/>
+          <a:ext cx="982980" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>アカウント　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>　 作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>68579</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="312419" y="548640"/>
+          <a:ext cx="2423161" cy="708660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="525780" y="624840"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="525780" y="2346960"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20481</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="525780" y="1767841"/>
+          <a:ext cx="348141" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="525780" y="1127761"/>
+          <a:ext cx="342085" cy="259079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2186940" y="800100"/>
+          <a:ext cx="510540" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2179320" y="762000"/>
+          <a:ext cx="685800" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>しんき</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="1348740"/>
+          <a:ext cx="1287780" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="693420" y="1310640"/>
+          <a:ext cx="1554480" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さがしてとうろく</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="739140"/>
+          <a:ext cx="1554480" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>●こども　〇おとな</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="975360"/>
+          <a:ext cx="1973580" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>●公開しない　〇する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7231380" y="449580"/>
+          <a:ext cx="259080" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>118447</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658100" y="784860"/>
+          <a:ext cx="385147" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3456</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7741920" y="1630681"/>
+          <a:ext cx="308256" cy="274319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121105</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7216140" y="2499360"/>
+          <a:ext cx="342085" cy="259079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="385147" cy="251460"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658100" y="2964180"/>
+          <a:ext cx="385147" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2044,7 +3209,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2856,30 +4021,30 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="16" name="図 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2893,8 +4058,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7231380" y="449580"/>
-          <a:ext cx="259080" cy="259080"/>
+          <a:off x="525780" y="365760"/>
+          <a:ext cx="2156460" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2915,167 +4080,70 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>118447</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPr id="17" name="図 16"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7658100" y="784860"/>
-          <a:ext cx="385147" cy="251460"/>
+          <a:off x="1074420" y="731520"/>
+          <a:ext cx="784860" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>121921</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3456</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7741920" y="1630681"/>
-          <a:ext cx="308256" cy="274319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>121105</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7216140" y="2499360"/>
-          <a:ext cx="342085" cy="259079"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="385147" cy="251460"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7658100" y="2964180"/>
-          <a:ext cx="385147" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3086,7 +4154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3124,13 +4192,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3141,7 +4209,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3179,13 +4247,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>99061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>102516</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3196,7 +4264,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3217,13 +4285,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>91441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>20481</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3234,7 +4302,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3255,13 +4323,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57487</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3272,7 +4340,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3293,13 +4361,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>121921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>14425</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3310,7 +4378,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3327,73 +4395,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2148840" y="312420"/>
-          <a:ext cx="510540" cy="220980"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3402,8 +4415,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2042160" y="259080"/>
-          <a:ext cx="731520" cy="281940"/>
+          <a:off x="1897380" y="754380"/>
+          <a:ext cx="853440" cy="396240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3447,10 +4460,957 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="角丸四角形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="762000"/>
+          <a:ext cx="731520" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>さがす</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="579120" y="411480"/>
+          <a:ext cx="1303020" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メールアドレス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="388620" y="716280"/>
+          <a:ext cx="2133600" cy="2903220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="角丸四角形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="350520" y="601980"/>
+          <a:ext cx="990600" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ほしいもの</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="角丸四角形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="388620" y="2225040"/>
+          <a:ext cx="990600" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="2164080"/>
+          <a:ext cx="1714500" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ほしいもののリンク</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="373380" y="853440"/>
+          <a:ext cx="990600" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ほしいもの</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="373380" y="1440180"/>
+          <a:ext cx="990600" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コメント</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="角丸四角形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="373380" y="2438400"/>
+          <a:ext cx="2026920" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>楽天で買いたいものを選択して教えてあげる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="190500" y="3284220"/>
+          <a:ext cx="2476500" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="角丸四角形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="403860" y="3352800"/>
+          <a:ext cx="2438400" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>いいね何ポイントで買っていいか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1760220" y="723900"/>
+          <a:ext cx="701040" cy="297411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="角丸四角形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1836420" y="701040"/>
+          <a:ext cx="624840" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>とうろく</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1051560" y="723900"/>
+          <a:ext cx="701040" cy="297411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="角丸四角形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1112520" y="708660"/>
+          <a:ext cx="685800" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>とりけし</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5248,10 +7208,12 @@
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
       <c r="AA4" s="6"/>
     </row>
     <row r="5" spans="2:27">
@@ -5268,27 +7230,27 @@
     </row>
     <row r="7" spans="2:27">
       <c r="B7" s="4"/>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="57"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="34"/>
       <c r="AA7" s="6"/>
     </row>
     <row r="8" spans="2:27" s="16" customFormat="1">
@@ -5367,6 +7329,27 @@
     </row>
     <row r="16" spans="2:27">
       <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
@@ -5374,6 +7357,27 @@
     </row>
     <row r="17" spans="2:31">
       <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
@@ -5381,6 +7385,27 @@
     </row>
     <row r="18" spans="2:31">
       <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
@@ -5388,6 +7413,27 @@
     </row>
     <row r="19" spans="2:31">
       <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
@@ -5395,9 +7441,28 @@
     </row>
     <row r="20" spans="2:31">
       <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
       <c r="AA20" s="6"/>
     </row>
     <row r="21" spans="2:31">
@@ -5463,32 +7528,32 @@
     </row>
     <row r="27" spans="2:31">
       <c r="B27" s="4"/>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="41"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="39"/>
       <c r="AA27" s="6"/>
       <c r="AE27" t="s">
         <v>82</v>
@@ -5496,90 +7561,90 @@
     </row>
     <row r="28" spans="2:31">
       <c r="B28" s="4"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="44"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="42"/>
       <c r="AA28" s="6"/>
     </row>
     <row r="29" spans="2:31">
       <c r="B29" s="4"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="39" t="s">
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="41"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="39"/>
       <c r="AA29" s="6"/>
     </row>
     <row r="30" spans="2:31">
       <c r="B30" s="4"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="44"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="42"/>
       <c r="AA30" s="6"/>
     </row>
     <row r="31" spans="2:31">
@@ -5623,13 +7688,2144 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="B2:AD25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="BQ22" sqref="BQ22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="2" spans="2:30">
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3" spans="2:30">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="6"/>
+    </row>
+    <row r="4" spans="2:30">
+      <c r="B4" s="4"/>
+      <c r="C4" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="6"/>
+    </row>
+    <row r="5" spans="2:30">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="AD5" s="6"/>
+    </row>
+    <row r="6" spans="2:30">
+      <c r="B6" s="4"/>
+      <c r="C6" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="45"/>
+      <c r="AD6" s="6"/>
+    </row>
+    <row r="7" spans="2:30">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="3"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="6"/>
+    </row>
+    <row r="8" spans="2:30">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="6"/>
+      <c r="AD8" s="6"/>
+    </row>
+    <row r="9" spans="2:30" s="16" customFormat="1">
+      <c r="B9" s="14"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="6"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AD9" s="15"/>
+    </row>
+    <row r="10" spans="2:30" s="16" customFormat="1">
+      <c r="B10" s="14"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="6"/>
+      <c r="AD10" s="15"/>
+    </row>
+    <row r="11" spans="2:30">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="6"/>
+    </row>
+    <row r="12" spans="2:30">
+      <c r="B12" s="4"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="9"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="6"/>
+    </row>
+    <row r="13" spans="2:30">
+      <c r="B13" s="4"/>
+      <c r="AD13" s="6"/>
+    </row>
+    <row r="14" spans="2:30">
+      <c r="B14" s="4"/>
+      <c r="C14" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="45"/>
+      <c r="AD14" s="6"/>
+    </row>
+    <row r="15" spans="2:30">
+      <c r="B15" s="4"/>
+      <c r="C15" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="6"/>
+    </row>
+    <row r="16" spans="2:30">
+      <c r="B16" s="4"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="9"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="6"/>
+    </row>
+    <row r="17" spans="2:30">
+      <c r="B17" s="4"/>
+      <c r="AD17" s="6"/>
+    </row>
+    <row r="18" spans="2:30" s="16" customFormat="1">
+      <c r="B18" s="14"/>
+      <c r="C18" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AD18" s="15"/>
+    </row>
+    <row r="19" spans="2:30">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="6"/>
+    </row>
+    <row r="20" spans="2:30">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="6"/>
+    </row>
+    <row r="21" spans="2:30">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="6"/>
+    </row>
+    <row r="22" spans="2:30">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="6"/>
+    </row>
+    <row r="23" spans="2:30">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="9"/>
+    </row>
+    <row r="25" spans="2:30">
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C6:V6"/>
+    <mergeCell ref="C14:V14"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="E21:L22"/>
+    <mergeCell ref="O21:V22"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AV29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="2" spans="2:48">
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="2:48">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="6"/>
+    </row>
+    <row r="4" spans="2:48">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="6"/>
+    </row>
+    <row r="5" spans="2:48">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="6"/>
+    </row>
+    <row r="6" spans="2:48">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="6"/>
+      <c r="AA6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:48">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="6"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD7" s="16"/>
+    </row>
+    <row r="8" spans="2:48">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="6"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD8" s="16"/>
+    </row>
+    <row r="9" spans="2:48">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="6"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD9" s="16"/>
+    </row>
+    <row r="10" spans="2:48">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="2:48" s="16" customFormat="1">
+      <c r="B11" s="14"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="15"/>
+      <c r="AA11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AV11" s="30"/>
+    </row>
+    <row r="12" spans="2:48" s="16" customFormat="1">
+      <c r="B12" s="14"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="15"/>
+    </row>
+    <row r="13" spans="2:48">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="6"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+    </row>
+    <row r="14" spans="2:48">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="6"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AV14" s="32"/>
+    </row>
+    <row r="15" spans="2:48">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="2:48">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="2:48">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="6"/>
+      <c r="AV17" s="32"/>
+    </row>
+    <row r="18" spans="2:48">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="2:48">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="2:48">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="6"/>
+    </row>
+    <row r="21" spans="2:48">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="2:48">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="2:48">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="6"/>
+    </row>
+    <row r="24" spans="2:48">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="6"/>
+    </row>
+    <row r="25" spans="2:48">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="6"/>
+    </row>
+    <row r="26" spans="2:48">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="6"/>
+    </row>
+    <row r="27" spans="2:48">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="6"/>
+    </row>
+    <row r="28" spans="2:48">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="6"/>
+    </row>
+    <row r="29" spans="2:48">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AF25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="2" spans="2:32">
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="3"/>
+    </row>
+    <row r="3" spans="2:32">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="6"/>
+    </row>
+    <row r="4" spans="2:32">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="6"/>
+      <c r="AF4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="6"/>
+    </row>
+    <row r="6" spans="2:32">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="6"/>
+    </row>
+    <row r="7" spans="2:32">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="6"/>
+    </row>
+    <row r="8" spans="2:32">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="6"/>
+      <c r="AF8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" s="16" customFormat="1">
+      <c r="B9" s="14"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="15"/>
+      <c r="AF9" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" s="16" customFormat="1">
+      <c r="B10" s="14"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="15"/>
+    </row>
+    <row r="11" spans="2:32">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="6"/>
+    </row>
+    <row r="12" spans="2:32">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="6"/>
+    </row>
+    <row r="13" spans="2:32">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="6"/>
+    </row>
+    <row r="14" spans="2:32">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="6"/>
+    </row>
+    <row r="15" spans="2:32">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="6"/>
+    </row>
+    <row r="16" spans="2:32">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="6"/>
+    </row>
+    <row r="17" spans="2:31">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="6"/>
+    </row>
+    <row r="18" spans="2:31">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="6"/>
+    </row>
+    <row r="19" spans="2:31">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="6"/>
+    </row>
+    <row r="20" spans="2:31">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="6"/>
+    </row>
+    <row r="21" spans="2:31">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" s="24"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+    </row>
+    <row r="22" spans="2:31">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+    </row>
+    <row r="23" spans="2:31">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+    </row>
+    <row r="24" spans="2:31">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+    </row>
+    <row r="25" spans="2:31">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AS31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ17" sqref="AQ17"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
   <sheetData>
@@ -6319,13 +10515,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX23" sqref="AX23"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
   <sheetData>
@@ -7922,794 +12116,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AF25"/>
+  <dimension ref="B2:AV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
-  <sheetData>
-    <row r="2" spans="2:32">
-      <c r="B2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="3"/>
-    </row>
-    <row r="3" spans="2:32">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="6"/>
-    </row>
-    <row r="4" spans="2:32">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="6"/>
-      <c r="AF4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="2:32">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="6"/>
-    </row>
-    <row r="6" spans="2:32">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="6"/>
-    </row>
-    <row r="7" spans="2:32">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="6"/>
-    </row>
-    <row r="8" spans="2:32">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="6"/>
-      <c r="AF8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="2:32" s="16" customFormat="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="15"/>
-      <c r="AF9" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:32" s="16" customFormat="1">
-      <c r="B10" s="14"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="15"/>
-    </row>
-    <row r="11" spans="2:32">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="6"/>
-    </row>
-    <row r="12" spans="2:32">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="6"/>
-    </row>
-    <row r="13" spans="2:32">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="6"/>
-    </row>
-    <row r="14" spans="2:32">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="6"/>
-    </row>
-    <row r="15" spans="2:32">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="6"/>
-    </row>
-    <row r="16" spans="2:32">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="6"/>
-    </row>
-    <row r="17" spans="2:31">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="6"/>
-    </row>
-    <row r="18" spans="2:31">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="6"/>
-    </row>
-    <row r="19" spans="2:31">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="6"/>
-    </row>
-    <row r="20" spans="2:31">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="6"/>
-    </row>
-    <row r="21" spans="2:31">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-    </row>
-    <row r="22" spans="2:31">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-    </row>
-    <row r="23" spans="2:31">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-    </row>
-    <row r="24" spans="2:31">
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-    </row>
-    <row r="25" spans="2:31">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AV23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN14" sqref="AN14"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
   <sheetData>
@@ -8786,20 +12197,19 @@
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="6"/>
-    </row>
-    <row r="5" spans="2:48" s="16" customFormat="1">
-      <c r="B5" s="14"/>
-      <c r="C5" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="22"/>
+      <c r="Z4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:48">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="30" t="s">
-        <v>52</v>
-      </c>
+      <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -8813,13 +12223,15 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="15"/>
-      <c r="AV5" s="30"/>
-    </row>
-    <row r="6" spans="2:48" s="16" customFormat="1">
-      <c r="B6" s="14"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="W5" s="6"/>
+      <c r="AA5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:48">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -8838,7 +12250,14 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="15"/>
+      <c r="W6" s="6"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
     </row>
     <row r="7" spans="2:48">
       <c r="B7" s="4"/>
@@ -8866,17 +12285,13 @@
     </row>
     <row r="8" spans="2:48">
       <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="32" t="s">
-        <v>56</v>
-      </c>
+      <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -8891,17 +12306,20 @@
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="6"/>
-      <c r="AV8" s="32"/>
-    </row>
-    <row r="9" spans="2:48">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+    </row>
+    <row r="9" spans="2:48" s="16" customFormat="1">
+      <c r="B9" s="14"/>
+      <c r="C9" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="22"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="30" t="s">
+        <v>52</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -8915,12 +12333,20 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="6"/>
-    </row>
-    <row r="10" spans="2:48">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="W9" s="15"/>
+      <c r="Z9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AV9" s="30"/>
+    </row>
+    <row r="10" spans="2:48" s="16" customFormat="1">
+      <c r="B10" s="14"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -8939,7 +12365,14 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="6"/>
+      <c r="W10" s="15"/>
+      <c r="Z10"/>
+      <c r="AA10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
     </row>
     <row r="11" spans="2:48">
       <c r="B11" s="4"/>
@@ -8964,7 +12397,11 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="6"/>
-      <c r="AV11" s="32"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
     </row>
     <row r="12" spans="2:48">
       <c r="B12" s="4"/>
@@ -8977,7 +12414,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -8993,6 +12430,7 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="6"/>
+      <c r="AV12" s="32"/>
     </row>
     <row r="13" spans="2:48">
       <c r="B13" s="4"/>
@@ -9044,17 +12482,13 @@
     </row>
     <row r="15" spans="2:48">
       <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="32" t="s">
-        <v>58</v>
-      </c>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -9069,16 +12503,21 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="6"/>
+      <c r="AV15" s="32"/>
     </row>
     <row r="16" spans="2:48">
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="I16" s="32" t="s">
+        <v>57</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -9120,17 +12559,13 @@
     </row>
     <row r="18" spans="2:23">
       <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="32" t="s">
-        <v>59</v>
-      </c>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -9148,13 +12583,17 @@
     </row>
     <row r="19" spans="2:23">
       <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="I19" s="32" t="s">
+        <v>58</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -9196,17 +12635,13 @@
     </row>
     <row r="21" spans="2:23">
       <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="32" t="s">
-        <v>60</v>
-      </c>
+      <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -9224,13 +12659,17 @@
     </row>
     <row r="22" spans="2:23">
       <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="32" t="s">
+        <v>59</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -9247,28 +12686,128 @@
       <c r="W22" s="6"/>
     </row>
     <row r="23" spans="2:23">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="9"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="6"/>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="6"/>
+    </row>
+    <row r="25" spans="2:23">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="6"/>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="6"/>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -9278,19 +12817,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AD25"/>
+  <dimension ref="A2:X30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="2" spans="2:30">
+    <row r="2" spans="1:24">
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9312,16 +12851,9 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="3"/>
-    </row>
-    <row r="3" spans="2:30">
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="1:24">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -9343,51 +12875,33 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="6"/>
-    </row>
-    <row r="4" spans="2:30">
+      <c r="W3" s="6"/>
+    </row>
+    <row r="4" spans="1:24">
       <c r="B4" s="4"/>
-      <c r="C4" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="6"/>
-    </row>
-    <row r="5" spans="2:30">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="6"/>
+    </row>
+    <row r="5" spans="1:24">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -9407,73 +12921,61 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="AD5" s="6"/>
-    </row>
-    <row r="6" spans="2:30">
+      <c r="W5" s="6"/>
+    </row>
+    <row r="6" spans="1:24">
       <c r="B6" s="4"/>
-      <c r="C6" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="35"/>
-      <c r="AD6" s="6"/>
-    </row>
-    <row r="7" spans="2:30">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="6"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="3"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="6"/>
-    </row>
-    <row r="8" spans="2:30">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -9492,12 +12994,12 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="6"/>
-      <c r="AD8" s="6"/>
-    </row>
-    <row r="9" spans="2:30" s="16" customFormat="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="4"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -9516,18 +13018,13 @@
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
-      <c r="V9" s="6"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AD9" s="15"/>
-    </row>
-    <row r="10" spans="2:30" s="16" customFormat="1">
-      <c r="B10" s="14"/>
-      <c r="C10" s="4"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" spans="1:24" s="16" customFormat="1">
+      <c r="A10"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -9546,12 +13043,14 @@
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="6"/>
-      <c r="AD10" s="15"/>
-    </row>
-    <row r="11" spans="2:30">
+      <c r="V10" s="5"/>
+      <c r="W10" s="6"/>
+      <c r="X10"/>
+    </row>
+    <row r="11" spans="1:24" s="16" customFormat="1">
+      <c r="A11"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -9570,172 +13069,190 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="6"/>
-    </row>
-    <row r="12" spans="2:30">
-      <c r="B12" s="4"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="9"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="6"/>
-    </row>
-    <row r="13" spans="2:30">
-      <c r="B13" s="4"/>
-      <c r="AD13" s="6"/>
-    </row>
-    <row r="14" spans="2:30">
+      <c r="V11" s="5"/>
+      <c r="W11" s="6"/>
+      <c r="X11"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="16"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="16"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="16"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="16"/>
+    </row>
+    <row r="14" spans="1:24">
       <c r="B14" s="4"/>
-      <c r="C14" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="35"/>
-      <c r="AD14" s="6"/>
-    </row>
-    <row r="15" spans="2:30">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="1:24">
       <c r="B15" s="4"/>
-      <c r="C15" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="6"/>
-    </row>
-    <row r="16" spans="2:30">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="1:24">
       <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="9"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="6"/>
-    </row>
-    <row r="17" spans="2:30">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="1:24">
       <c r="B17" s="4"/>
-      <c r="AD17" s="6"/>
-    </row>
-    <row r="18" spans="2:30" s="16" customFormat="1">
-      <c r="B18" s="14"/>
-      <c r="C18" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="12"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AD18" s="15"/>
-    </row>
-    <row r="19" spans="2:30">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="6"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="1:24" s="16" customFormat="1">
+      <c r="A19"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -9745,12 +13262,16 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="6"/>
-    </row>
-    <row r="20" spans="2:30">
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="6"/>
+      <c r="X19"/>
+    </row>
+    <row r="20" spans="1:24">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -9764,132 +13285,264 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="6"/>
-    </row>
-    <row r="21" spans="2:30">
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="6"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="50"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="6"/>
-    </row>
-    <row r="22" spans="2:30">
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="1:24">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="6"/>
-    </row>
-    <row r="23" spans="2:30">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="9"/>
-    </row>
-    <row r="25" spans="2:30">
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="6"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="6"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="6"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="6"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="6"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="6"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="6"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C6:V6"/>
-    <mergeCell ref="O21:V22"/>
-    <mergeCell ref="E21:L22"/>
-    <mergeCell ref="C14:V14"/>
-    <mergeCell ref="C18:I18"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CJ40"/>
   <sheetViews>
@@ -12018,36 +15671,36 @@
       <c r="BD25" s="5"/>
       <c r="BE25" s="5"/>
       <c r="BF25" s="6"/>
-      <c r="BG25" s="39" t="s">
+      <c r="BG25" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="BH25" s="40"/>
-      <c r="BI25" s="40"/>
-      <c r="BJ25" s="40"/>
-      <c r="BK25" s="40"/>
-      <c r="BL25" s="40"/>
-      <c r="BM25" s="40"/>
-      <c r="BN25" s="40"/>
-      <c r="BO25" s="40"/>
-      <c r="BP25" s="40"/>
-      <c r="BQ25" s="40"/>
-      <c r="BR25" s="40"/>
-      <c r="BS25" s="40"/>
-      <c r="BT25" s="40"/>
-      <c r="BU25" s="40"/>
-      <c r="BV25" s="40"/>
-      <c r="BW25" s="40"/>
-      <c r="BX25" s="40"/>
-      <c r="BY25" s="40"/>
-      <c r="BZ25" s="40"/>
-      <c r="CA25" s="40"/>
-      <c r="CB25" s="40"/>
-      <c r="CC25" s="40"/>
-      <c r="CD25" s="40"/>
-      <c r="CE25" s="40"/>
-      <c r="CF25" s="40"/>
-      <c r="CG25" s="40"/>
-      <c r="CH25" s="41"/>
+      <c r="BH25" s="38"/>
+      <c r="BI25" s="38"/>
+      <c r="BJ25" s="38"/>
+      <c r="BK25" s="38"/>
+      <c r="BL25" s="38"/>
+      <c r="BM25" s="38"/>
+      <c r="BN25" s="38"/>
+      <c r="BO25" s="38"/>
+      <c r="BP25" s="38"/>
+      <c r="BQ25" s="38"/>
+      <c r="BR25" s="38"/>
+      <c r="BS25" s="38"/>
+      <c r="BT25" s="38"/>
+      <c r="BU25" s="38"/>
+      <c r="BV25" s="38"/>
+      <c r="BW25" s="38"/>
+      <c r="BX25" s="38"/>
+      <c r="BY25" s="38"/>
+      <c r="BZ25" s="38"/>
+      <c r="CA25" s="38"/>
+      <c r="CB25" s="38"/>
+      <c r="CC25" s="38"/>
+      <c r="CD25" s="38"/>
+      <c r="CE25" s="38"/>
+      <c r="CF25" s="38"/>
+      <c r="CG25" s="38"/>
+      <c r="CH25" s="39"/>
       <c r="CI25" s="5"/>
       <c r="CJ25" s="5"/>
     </row>
@@ -12109,34 +15762,34 @@
       <c r="BD26" s="5"/>
       <c r="BE26" s="5"/>
       <c r="BF26" s="6"/>
-      <c r="BG26" s="45"/>
-      <c r="BH26" s="46"/>
-      <c r="BI26" s="46"/>
-      <c r="BJ26" s="46"/>
-      <c r="BK26" s="46"/>
-      <c r="BL26" s="46"/>
-      <c r="BM26" s="46"/>
-      <c r="BN26" s="46"/>
-      <c r="BO26" s="46"/>
-      <c r="BP26" s="46"/>
-      <c r="BQ26" s="46"/>
-      <c r="BR26" s="46"/>
-      <c r="BS26" s="46"/>
-      <c r="BT26" s="46"/>
-      <c r="BU26" s="46"/>
-      <c r="BV26" s="46"/>
-      <c r="BW26" s="46"/>
-      <c r="BX26" s="46"/>
-      <c r="BY26" s="46"/>
-      <c r="BZ26" s="46"/>
-      <c r="CA26" s="46"/>
-      <c r="CB26" s="46"/>
-      <c r="CC26" s="46"/>
-      <c r="CD26" s="46"/>
-      <c r="CE26" s="46"/>
-      <c r="CF26" s="46"/>
-      <c r="CG26" s="46"/>
-      <c r="CH26" s="47"/>
+      <c r="BG26" s="52"/>
+      <c r="BH26" s="53"/>
+      <c r="BI26" s="53"/>
+      <c r="BJ26" s="53"/>
+      <c r="BK26" s="53"/>
+      <c r="BL26" s="53"/>
+      <c r="BM26" s="53"/>
+      <c r="BN26" s="53"/>
+      <c r="BO26" s="53"/>
+      <c r="BP26" s="53"/>
+      <c r="BQ26" s="53"/>
+      <c r="BR26" s="53"/>
+      <c r="BS26" s="53"/>
+      <c r="BT26" s="53"/>
+      <c r="BU26" s="53"/>
+      <c r="BV26" s="53"/>
+      <c r="BW26" s="53"/>
+      <c r="BX26" s="53"/>
+      <c r="BY26" s="53"/>
+      <c r="BZ26" s="53"/>
+      <c r="CA26" s="53"/>
+      <c r="CB26" s="53"/>
+      <c r="CC26" s="53"/>
+      <c r="CD26" s="53"/>
+      <c r="CE26" s="53"/>
+      <c r="CF26" s="53"/>
+      <c r="CG26" s="53"/>
+      <c r="CH26" s="54"/>
       <c r="CI26" s="5"/>
       <c r="CJ26" s="5"/>
     </row>
@@ -12200,34 +15853,34 @@
       <c r="BD27" s="5"/>
       <c r="BE27" s="5"/>
       <c r="BF27" s="6"/>
-      <c r="BG27" s="45"/>
-      <c r="BH27" s="46"/>
-      <c r="BI27" s="46"/>
-      <c r="BJ27" s="46"/>
-      <c r="BK27" s="46"/>
-      <c r="BL27" s="46"/>
-      <c r="BM27" s="46"/>
-      <c r="BN27" s="46"/>
-      <c r="BO27" s="46"/>
-      <c r="BP27" s="46"/>
-      <c r="BQ27" s="46"/>
-      <c r="BR27" s="46"/>
-      <c r="BS27" s="46"/>
-      <c r="BT27" s="46"/>
-      <c r="BU27" s="46"/>
-      <c r="BV27" s="46"/>
-      <c r="BW27" s="46"/>
-      <c r="BX27" s="46"/>
-      <c r="BY27" s="46"/>
-      <c r="BZ27" s="46"/>
-      <c r="CA27" s="46"/>
-      <c r="CB27" s="46"/>
-      <c r="CC27" s="46"/>
-      <c r="CD27" s="46"/>
-      <c r="CE27" s="46"/>
-      <c r="CF27" s="46"/>
-      <c r="CG27" s="46"/>
-      <c r="CH27" s="47"/>
+      <c r="BG27" s="52"/>
+      <c r="BH27" s="53"/>
+      <c r="BI27" s="53"/>
+      <c r="BJ27" s="53"/>
+      <c r="BK27" s="53"/>
+      <c r="BL27" s="53"/>
+      <c r="BM27" s="53"/>
+      <c r="BN27" s="53"/>
+      <c r="BO27" s="53"/>
+      <c r="BP27" s="53"/>
+      <c r="BQ27" s="53"/>
+      <c r="BR27" s="53"/>
+      <c r="BS27" s="53"/>
+      <c r="BT27" s="53"/>
+      <c r="BU27" s="53"/>
+      <c r="BV27" s="53"/>
+      <c r="BW27" s="53"/>
+      <c r="BX27" s="53"/>
+      <c r="BY27" s="53"/>
+      <c r="BZ27" s="53"/>
+      <c r="CA27" s="53"/>
+      <c r="CB27" s="53"/>
+      <c r="CC27" s="53"/>
+      <c r="CD27" s="53"/>
+      <c r="CE27" s="53"/>
+      <c r="CF27" s="53"/>
+      <c r="CG27" s="53"/>
+      <c r="CH27" s="54"/>
       <c r="CI27" s="5"/>
       <c r="CJ27" s="5"/>
     </row>
@@ -12289,34 +15942,34 @@
       <c r="BD28" s="5"/>
       <c r="BE28" s="5"/>
       <c r="BF28" s="6"/>
-      <c r="BG28" s="42"/>
-      <c r="BH28" s="43"/>
-      <c r="BI28" s="43"/>
-      <c r="BJ28" s="43"/>
-      <c r="BK28" s="43"/>
-      <c r="BL28" s="43"/>
-      <c r="BM28" s="43"/>
-      <c r="BN28" s="43"/>
-      <c r="BO28" s="43"/>
-      <c r="BP28" s="43"/>
-      <c r="BQ28" s="43"/>
-      <c r="BR28" s="43"/>
-      <c r="BS28" s="43"/>
-      <c r="BT28" s="43"/>
-      <c r="BU28" s="43"/>
-      <c r="BV28" s="43"/>
-      <c r="BW28" s="43"/>
-      <c r="BX28" s="43"/>
-      <c r="BY28" s="43"/>
-      <c r="BZ28" s="43"/>
-      <c r="CA28" s="43"/>
-      <c r="CB28" s="43"/>
-      <c r="CC28" s="43"/>
-      <c r="CD28" s="43"/>
-      <c r="CE28" s="43"/>
-      <c r="CF28" s="43"/>
-      <c r="CG28" s="43"/>
-      <c r="CH28" s="44"/>
+      <c r="BG28" s="40"/>
+      <c r="BH28" s="41"/>
+      <c r="BI28" s="41"/>
+      <c r="BJ28" s="41"/>
+      <c r="BK28" s="41"/>
+      <c r="BL28" s="41"/>
+      <c r="BM28" s="41"/>
+      <c r="BN28" s="41"/>
+      <c r="BO28" s="41"/>
+      <c r="BP28" s="41"/>
+      <c r="BQ28" s="41"/>
+      <c r="BR28" s="41"/>
+      <c r="BS28" s="41"/>
+      <c r="BT28" s="41"/>
+      <c r="BU28" s="41"/>
+      <c r="BV28" s="41"/>
+      <c r="BW28" s="41"/>
+      <c r="BX28" s="41"/>
+      <c r="BY28" s="41"/>
+      <c r="BZ28" s="41"/>
+      <c r="CA28" s="41"/>
+      <c r="CB28" s="41"/>
+      <c r="CC28" s="41"/>
+      <c r="CD28" s="41"/>
+      <c r="CE28" s="41"/>
+      <c r="CF28" s="41"/>
+      <c r="CG28" s="41"/>
+      <c r="CH28" s="42"/>
       <c r="CI28" s="5"/>
       <c r="CJ28" s="5"/>
     </row>
@@ -12380,36 +16033,36 @@
       <c r="BD29" s="5"/>
       <c r="BE29" s="5"/>
       <c r="BF29" s="6"/>
-      <c r="BG29" s="39" t="s">
+      <c r="BG29" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="BH29" s="40"/>
-      <c r="BI29" s="40"/>
-      <c r="BJ29" s="40"/>
-      <c r="BK29" s="40"/>
-      <c r="BL29" s="40"/>
-      <c r="BM29" s="40"/>
-      <c r="BN29" s="40"/>
-      <c r="BO29" s="40"/>
-      <c r="BP29" s="40"/>
-      <c r="BQ29" s="40"/>
-      <c r="BR29" s="40"/>
-      <c r="BS29" s="40"/>
-      <c r="BT29" s="40"/>
-      <c r="BU29" s="40"/>
-      <c r="BV29" s="40"/>
-      <c r="BW29" s="40"/>
-      <c r="BX29" s="40"/>
-      <c r="BY29" s="40"/>
-      <c r="BZ29" s="40"/>
-      <c r="CA29" s="40"/>
-      <c r="CB29" s="40"/>
-      <c r="CC29" s="40"/>
-      <c r="CD29" s="40"/>
-      <c r="CE29" s="40"/>
-      <c r="CF29" s="40"/>
-      <c r="CG29" s="40"/>
-      <c r="CH29" s="41"/>
+      <c r="BH29" s="38"/>
+      <c r="BI29" s="38"/>
+      <c r="BJ29" s="38"/>
+      <c r="BK29" s="38"/>
+      <c r="BL29" s="38"/>
+      <c r="BM29" s="38"/>
+      <c r="BN29" s="38"/>
+      <c r="BO29" s="38"/>
+      <c r="BP29" s="38"/>
+      <c r="BQ29" s="38"/>
+      <c r="BR29" s="38"/>
+      <c r="BS29" s="38"/>
+      <c r="BT29" s="38"/>
+      <c r="BU29" s="38"/>
+      <c r="BV29" s="38"/>
+      <c r="BW29" s="38"/>
+      <c r="BX29" s="38"/>
+      <c r="BY29" s="38"/>
+      <c r="BZ29" s="38"/>
+      <c r="CA29" s="38"/>
+      <c r="CB29" s="38"/>
+      <c r="CC29" s="38"/>
+      <c r="CD29" s="38"/>
+      <c r="CE29" s="38"/>
+      <c r="CF29" s="38"/>
+      <c r="CG29" s="38"/>
+      <c r="CH29" s="39"/>
       <c r="CI29" s="5"/>
       <c r="CJ29" s="5"/>
     </row>
@@ -12471,34 +16124,34 @@
       <c r="BD30" s="5"/>
       <c r="BE30" s="5"/>
       <c r="BF30" s="6"/>
-      <c r="BG30" s="45"/>
-      <c r="BH30" s="46"/>
-      <c r="BI30" s="46"/>
-      <c r="BJ30" s="46"/>
-      <c r="BK30" s="46"/>
-      <c r="BL30" s="46"/>
-      <c r="BM30" s="46"/>
-      <c r="BN30" s="46"/>
-      <c r="BO30" s="46"/>
-      <c r="BP30" s="46"/>
-      <c r="BQ30" s="46"/>
-      <c r="BR30" s="46"/>
-      <c r="BS30" s="46"/>
-      <c r="BT30" s="46"/>
-      <c r="BU30" s="46"/>
-      <c r="BV30" s="46"/>
-      <c r="BW30" s="46"/>
-      <c r="BX30" s="46"/>
-      <c r="BY30" s="46"/>
-      <c r="BZ30" s="46"/>
-      <c r="CA30" s="46"/>
-      <c r="CB30" s="46"/>
-      <c r="CC30" s="46"/>
-      <c r="CD30" s="46"/>
-      <c r="CE30" s="46"/>
-      <c r="CF30" s="46"/>
-      <c r="CG30" s="46"/>
-      <c r="CH30" s="47"/>
+      <c r="BG30" s="52"/>
+      <c r="BH30" s="53"/>
+      <c r="BI30" s="53"/>
+      <c r="BJ30" s="53"/>
+      <c r="BK30" s="53"/>
+      <c r="BL30" s="53"/>
+      <c r="BM30" s="53"/>
+      <c r="BN30" s="53"/>
+      <c r="BO30" s="53"/>
+      <c r="BP30" s="53"/>
+      <c r="BQ30" s="53"/>
+      <c r="BR30" s="53"/>
+      <c r="BS30" s="53"/>
+      <c r="BT30" s="53"/>
+      <c r="BU30" s="53"/>
+      <c r="BV30" s="53"/>
+      <c r="BW30" s="53"/>
+      <c r="BX30" s="53"/>
+      <c r="BY30" s="53"/>
+      <c r="BZ30" s="53"/>
+      <c r="CA30" s="53"/>
+      <c r="CB30" s="53"/>
+      <c r="CC30" s="53"/>
+      <c r="CD30" s="53"/>
+      <c r="CE30" s="53"/>
+      <c r="CF30" s="53"/>
+      <c r="CG30" s="53"/>
+      <c r="CH30" s="54"/>
       <c r="CI30" s="5"/>
       <c r="CJ30" s="5"/>
     </row>
@@ -12560,34 +16213,34 @@
       <c r="BD31" s="5"/>
       <c r="BE31" s="5"/>
       <c r="BF31" s="6"/>
-      <c r="BG31" s="45"/>
-      <c r="BH31" s="46"/>
-      <c r="BI31" s="46"/>
-      <c r="BJ31" s="46"/>
-      <c r="BK31" s="46"/>
-      <c r="BL31" s="46"/>
-      <c r="BM31" s="46"/>
-      <c r="BN31" s="46"/>
-      <c r="BO31" s="46"/>
-      <c r="BP31" s="46"/>
-      <c r="BQ31" s="46"/>
-      <c r="BR31" s="46"/>
-      <c r="BS31" s="46"/>
-      <c r="BT31" s="46"/>
-      <c r="BU31" s="46"/>
-      <c r="BV31" s="46"/>
-      <c r="BW31" s="46"/>
-      <c r="BX31" s="46"/>
-      <c r="BY31" s="46"/>
-      <c r="BZ31" s="46"/>
-      <c r="CA31" s="46"/>
-      <c r="CB31" s="46"/>
-      <c r="CC31" s="46"/>
-      <c r="CD31" s="46"/>
-      <c r="CE31" s="46"/>
-      <c r="CF31" s="46"/>
-      <c r="CG31" s="46"/>
-      <c r="CH31" s="47"/>
+      <c r="BG31" s="52"/>
+      <c r="BH31" s="53"/>
+      <c r="BI31" s="53"/>
+      <c r="BJ31" s="53"/>
+      <c r="BK31" s="53"/>
+      <c r="BL31" s="53"/>
+      <c r="BM31" s="53"/>
+      <c r="BN31" s="53"/>
+      <c r="BO31" s="53"/>
+      <c r="BP31" s="53"/>
+      <c r="BQ31" s="53"/>
+      <c r="BR31" s="53"/>
+      <c r="BS31" s="53"/>
+      <c r="BT31" s="53"/>
+      <c r="BU31" s="53"/>
+      <c r="BV31" s="53"/>
+      <c r="BW31" s="53"/>
+      <c r="BX31" s="53"/>
+      <c r="BY31" s="53"/>
+      <c r="BZ31" s="53"/>
+      <c r="CA31" s="53"/>
+      <c r="CB31" s="53"/>
+      <c r="CC31" s="53"/>
+      <c r="CD31" s="53"/>
+      <c r="CE31" s="53"/>
+      <c r="CF31" s="53"/>
+      <c r="CG31" s="53"/>
+      <c r="CH31" s="54"/>
     </row>
     <row r="32" spans="2:88">
       <c r="U32" s="4"/>
@@ -12628,34 +16281,34 @@
       <c r="BD32" s="5"/>
       <c r="BE32" s="5"/>
       <c r="BF32" s="6"/>
-      <c r="BG32" s="42"/>
-      <c r="BH32" s="43"/>
-      <c r="BI32" s="43"/>
-      <c r="BJ32" s="43"/>
-      <c r="BK32" s="43"/>
-      <c r="BL32" s="43"/>
-      <c r="BM32" s="43"/>
-      <c r="BN32" s="43"/>
-      <c r="BO32" s="43"/>
-      <c r="BP32" s="43"/>
-      <c r="BQ32" s="43"/>
-      <c r="BR32" s="43"/>
-      <c r="BS32" s="43"/>
-      <c r="BT32" s="43"/>
-      <c r="BU32" s="43"/>
-      <c r="BV32" s="43"/>
-      <c r="BW32" s="43"/>
-      <c r="BX32" s="43"/>
-      <c r="BY32" s="43"/>
-      <c r="BZ32" s="43"/>
-      <c r="CA32" s="43"/>
-      <c r="CB32" s="43"/>
-      <c r="CC32" s="43"/>
-      <c r="CD32" s="43"/>
-      <c r="CE32" s="43"/>
-      <c r="CF32" s="43"/>
-      <c r="CG32" s="43"/>
-      <c r="CH32" s="44"/>
+      <c r="BG32" s="40"/>
+      <c r="BH32" s="41"/>
+      <c r="BI32" s="41"/>
+      <c r="BJ32" s="41"/>
+      <c r="BK32" s="41"/>
+      <c r="BL32" s="41"/>
+      <c r="BM32" s="41"/>
+      <c r="BN32" s="41"/>
+      <c r="BO32" s="41"/>
+      <c r="BP32" s="41"/>
+      <c r="BQ32" s="41"/>
+      <c r="BR32" s="41"/>
+      <c r="BS32" s="41"/>
+      <c r="BT32" s="41"/>
+      <c r="BU32" s="41"/>
+      <c r="BV32" s="41"/>
+      <c r="BW32" s="41"/>
+      <c r="BX32" s="41"/>
+      <c r="BY32" s="41"/>
+      <c r="BZ32" s="41"/>
+      <c r="CA32" s="41"/>
+      <c r="CB32" s="41"/>
+      <c r="CC32" s="41"/>
+      <c r="CD32" s="41"/>
+      <c r="CE32" s="41"/>
+      <c r="CF32" s="41"/>
+      <c r="CG32" s="41"/>
+      <c r="CH32" s="42"/>
     </row>
     <row r="33" spans="21:86">
       <c r="U33" s="4"/>
@@ -12696,36 +16349,36 @@
       <c r="BD33" s="5"/>
       <c r="BE33" s="5"/>
       <c r="BF33" s="6"/>
-      <c r="BG33" s="39" t="s">
+      <c r="BG33" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="BH33" s="40"/>
-      <c r="BI33" s="40"/>
-      <c r="BJ33" s="40"/>
-      <c r="BK33" s="40"/>
-      <c r="BL33" s="40"/>
-      <c r="BM33" s="40"/>
-      <c r="BN33" s="40"/>
-      <c r="BO33" s="40"/>
-      <c r="BP33" s="40"/>
-      <c r="BQ33" s="40"/>
-      <c r="BR33" s="40"/>
-      <c r="BS33" s="40"/>
-      <c r="BT33" s="40"/>
-      <c r="BU33" s="40"/>
-      <c r="BV33" s="40"/>
-      <c r="BW33" s="40"/>
-      <c r="BX33" s="40"/>
-      <c r="BY33" s="40"/>
-      <c r="BZ33" s="40"/>
-      <c r="CA33" s="40"/>
-      <c r="CB33" s="40"/>
-      <c r="CC33" s="40"/>
-      <c r="CD33" s="40"/>
-      <c r="CE33" s="40"/>
-      <c r="CF33" s="40"/>
-      <c r="CG33" s="40"/>
-      <c r="CH33" s="41"/>
+      <c r="BH33" s="38"/>
+      <c r="BI33" s="38"/>
+      <c r="BJ33" s="38"/>
+      <c r="BK33" s="38"/>
+      <c r="BL33" s="38"/>
+      <c r="BM33" s="38"/>
+      <c r="BN33" s="38"/>
+      <c r="BO33" s="38"/>
+      <c r="BP33" s="38"/>
+      <c r="BQ33" s="38"/>
+      <c r="BR33" s="38"/>
+      <c r="BS33" s="38"/>
+      <c r="BT33" s="38"/>
+      <c r="BU33" s="38"/>
+      <c r="BV33" s="38"/>
+      <c r="BW33" s="38"/>
+      <c r="BX33" s="38"/>
+      <c r="BY33" s="38"/>
+      <c r="BZ33" s="38"/>
+      <c r="CA33" s="38"/>
+      <c r="CB33" s="38"/>
+      <c r="CC33" s="38"/>
+      <c r="CD33" s="38"/>
+      <c r="CE33" s="38"/>
+      <c r="CF33" s="38"/>
+      <c r="CG33" s="38"/>
+      <c r="CH33" s="39"/>
     </row>
     <row r="34" spans="21:86">
       <c r="U34" s="4"/>
@@ -12768,34 +16421,34 @@
       <c r="BD34" s="5"/>
       <c r="BE34" s="5"/>
       <c r="BF34" s="6"/>
-      <c r="BG34" s="45"/>
-      <c r="BH34" s="46"/>
-      <c r="BI34" s="46"/>
-      <c r="BJ34" s="46"/>
-      <c r="BK34" s="46"/>
-      <c r="BL34" s="46"/>
-      <c r="BM34" s="46"/>
-      <c r="BN34" s="46"/>
-      <c r="BO34" s="46"/>
-      <c r="BP34" s="46"/>
-      <c r="BQ34" s="46"/>
-      <c r="BR34" s="46"/>
-      <c r="BS34" s="46"/>
-      <c r="BT34" s="46"/>
-      <c r="BU34" s="46"/>
-      <c r="BV34" s="46"/>
-      <c r="BW34" s="46"/>
-      <c r="BX34" s="46"/>
-      <c r="BY34" s="46"/>
-      <c r="BZ34" s="46"/>
-      <c r="CA34" s="46"/>
-      <c r="CB34" s="46"/>
-      <c r="CC34" s="46"/>
-      <c r="CD34" s="46"/>
-      <c r="CE34" s="46"/>
-      <c r="CF34" s="46"/>
-      <c r="CG34" s="46"/>
-      <c r="CH34" s="47"/>
+      <c r="BG34" s="52"/>
+      <c r="BH34" s="53"/>
+      <c r="BI34" s="53"/>
+      <c r="BJ34" s="53"/>
+      <c r="BK34" s="53"/>
+      <c r="BL34" s="53"/>
+      <c r="BM34" s="53"/>
+      <c r="BN34" s="53"/>
+      <c r="BO34" s="53"/>
+      <c r="BP34" s="53"/>
+      <c r="BQ34" s="53"/>
+      <c r="BR34" s="53"/>
+      <c r="BS34" s="53"/>
+      <c r="BT34" s="53"/>
+      <c r="BU34" s="53"/>
+      <c r="BV34" s="53"/>
+      <c r="BW34" s="53"/>
+      <c r="BX34" s="53"/>
+      <c r="BY34" s="53"/>
+      <c r="BZ34" s="53"/>
+      <c r="CA34" s="53"/>
+      <c r="CB34" s="53"/>
+      <c r="CC34" s="53"/>
+      <c r="CD34" s="53"/>
+      <c r="CE34" s="53"/>
+      <c r="CF34" s="53"/>
+      <c r="CG34" s="53"/>
+      <c r="CH34" s="54"/>
     </row>
     <row r="35" spans="21:86">
       <c r="U35" s="4"/>
@@ -12838,34 +16491,34 @@
       <c r="BD35" s="5"/>
       <c r="BE35" s="5"/>
       <c r="BF35" s="6"/>
-      <c r="BG35" s="45"/>
-      <c r="BH35" s="46"/>
-      <c r="BI35" s="46"/>
-      <c r="BJ35" s="46"/>
-      <c r="BK35" s="46"/>
-      <c r="BL35" s="46"/>
-      <c r="BM35" s="46"/>
-      <c r="BN35" s="46"/>
-      <c r="BO35" s="46"/>
-      <c r="BP35" s="46"/>
-      <c r="BQ35" s="46"/>
-      <c r="BR35" s="46"/>
-      <c r="BS35" s="46"/>
-      <c r="BT35" s="46"/>
-      <c r="BU35" s="46"/>
-      <c r="BV35" s="46"/>
-      <c r="BW35" s="46"/>
-      <c r="BX35" s="46"/>
-      <c r="BY35" s="46"/>
-      <c r="BZ35" s="46"/>
-      <c r="CA35" s="46"/>
-      <c r="CB35" s="46"/>
-      <c r="CC35" s="46"/>
-      <c r="CD35" s="46"/>
-      <c r="CE35" s="46"/>
-      <c r="CF35" s="46"/>
-      <c r="CG35" s="46"/>
-      <c r="CH35" s="47"/>
+      <c r="BG35" s="52"/>
+      <c r="BH35" s="53"/>
+      <c r="BI35" s="53"/>
+      <c r="BJ35" s="53"/>
+      <c r="BK35" s="53"/>
+      <c r="BL35" s="53"/>
+      <c r="BM35" s="53"/>
+      <c r="BN35" s="53"/>
+      <c r="BO35" s="53"/>
+      <c r="BP35" s="53"/>
+      <c r="BQ35" s="53"/>
+      <c r="BR35" s="53"/>
+      <c r="BS35" s="53"/>
+      <c r="BT35" s="53"/>
+      <c r="BU35" s="53"/>
+      <c r="BV35" s="53"/>
+      <c r="BW35" s="53"/>
+      <c r="BX35" s="53"/>
+      <c r="BY35" s="53"/>
+      <c r="BZ35" s="53"/>
+      <c r="CA35" s="53"/>
+      <c r="CB35" s="53"/>
+      <c r="CC35" s="53"/>
+      <c r="CD35" s="53"/>
+      <c r="CE35" s="53"/>
+      <c r="CF35" s="53"/>
+      <c r="CG35" s="53"/>
+      <c r="CH35" s="54"/>
     </row>
     <row r="36" spans="21:86">
       <c r="U36" s="4"/>
@@ -12908,34 +16561,34 @@
       <c r="BD36" s="5"/>
       <c r="BE36" s="5"/>
       <c r="BF36" s="6"/>
-      <c r="BG36" s="42"/>
-      <c r="BH36" s="43"/>
-      <c r="BI36" s="43"/>
-      <c r="BJ36" s="43"/>
-      <c r="BK36" s="43"/>
-      <c r="BL36" s="43"/>
-      <c r="BM36" s="43"/>
-      <c r="BN36" s="43"/>
-      <c r="BO36" s="43"/>
-      <c r="BP36" s="43"/>
-      <c r="BQ36" s="43"/>
-      <c r="BR36" s="43"/>
-      <c r="BS36" s="43"/>
-      <c r="BT36" s="43"/>
-      <c r="BU36" s="43"/>
-      <c r="BV36" s="43"/>
-      <c r="BW36" s="43"/>
-      <c r="BX36" s="43"/>
-      <c r="BY36" s="43"/>
-      <c r="BZ36" s="43"/>
-      <c r="CA36" s="43"/>
-      <c r="CB36" s="43"/>
-      <c r="CC36" s="43"/>
-      <c r="CD36" s="43"/>
-      <c r="CE36" s="43"/>
-      <c r="CF36" s="43"/>
-      <c r="CG36" s="43"/>
-      <c r="CH36" s="44"/>
+      <c r="BG36" s="40"/>
+      <c r="BH36" s="41"/>
+      <c r="BI36" s="41"/>
+      <c r="BJ36" s="41"/>
+      <c r="BK36" s="41"/>
+      <c r="BL36" s="41"/>
+      <c r="BM36" s="41"/>
+      <c r="BN36" s="41"/>
+      <c r="BO36" s="41"/>
+      <c r="BP36" s="41"/>
+      <c r="BQ36" s="41"/>
+      <c r="BR36" s="41"/>
+      <c r="BS36" s="41"/>
+      <c r="BT36" s="41"/>
+      <c r="BU36" s="41"/>
+      <c r="BV36" s="41"/>
+      <c r="BW36" s="41"/>
+      <c r="BX36" s="41"/>
+      <c r="BY36" s="41"/>
+      <c r="BZ36" s="41"/>
+      <c r="CA36" s="41"/>
+      <c r="CB36" s="41"/>
+      <c r="CC36" s="41"/>
+      <c r="CD36" s="41"/>
+      <c r="CE36" s="41"/>
+      <c r="CF36" s="41"/>
+      <c r="CG36" s="41"/>
+      <c r="CH36" s="42"/>
     </row>
     <row r="37" spans="21:86">
       <c r="U37" s="4"/>
@@ -13110,7 +16763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -13132,19 +16785,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="17" t="s">
@@ -13458,618 +17111,4 @@
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="1"/>
-  </sheetPr>
-  <dimension ref="B2:AD25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="BQ22" sqref="BQ22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
-  <sheetData>
-    <row r="2" spans="2:30">
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="3"/>
-    </row>
-    <row r="3" spans="2:30">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="6"/>
-    </row>
-    <row r="4" spans="2:30">
-      <c r="B4" s="4"/>
-      <c r="C4" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="6"/>
-    </row>
-    <row r="5" spans="2:30">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="AD5" s="6"/>
-    </row>
-    <row r="6" spans="2:30">
-      <c r="B6" s="4"/>
-      <c r="C6" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="35"/>
-      <c r="AD6" s="6"/>
-    </row>
-    <row r="7" spans="2:30">
-      <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="3"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="6"/>
-    </row>
-    <row r="8" spans="2:30">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="6"/>
-      <c r="AD8" s="6"/>
-    </row>
-    <row r="9" spans="2:30" s="16" customFormat="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="6"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AD9" s="15"/>
-    </row>
-    <row r="10" spans="2:30" s="16" customFormat="1">
-      <c r="B10" s="14"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="6"/>
-      <c r="AD10" s="15"/>
-    </row>
-    <row r="11" spans="2:30">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="6"/>
-    </row>
-    <row r="12" spans="2:30">
-      <c r="B12" s="4"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="9"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="6"/>
-    </row>
-    <row r="13" spans="2:30">
-      <c r="B13" s="4"/>
-      <c r="AD13" s="6"/>
-    </row>
-    <row r="14" spans="2:30">
-      <c r="B14" s="4"/>
-      <c r="C14" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="35"/>
-      <c r="AD14" s="6"/>
-    </row>
-    <row r="15" spans="2:30">
-      <c r="B15" s="4"/>
-      <c r="C15" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="6"/>
-    </row>
-    <row r="16" spans="2:30">
-      <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="9"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="6"/>
-    </row>
-    <row r="17" spans="2:30">
-      <c r="B17" s="4"/>
-      <c r="AD17" s="6"/>
-    </row>
-    <row r="18" spans="2:30" s="16" customFormat="1">
-      <c r="B18" s="14"/>
-      <c r="C18" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="12"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AD18" s="15"/>
-    </row>
-    <row r="19" spans="2:30">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="6"/>
-    </row>
-    <row r="20" spans="2:30">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="6"/>
-    </row>
-    <row r="21" spans="2:30">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="6"/>
-    </row>
-    <row r="22" spans="2:30">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="6"/>
-    </row>
-    <row r="23" spans="2:30">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="9"/>
-    </row>
-    <row r="25" spans="2:30">
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C6:V6"/>
-    <mergeCell ref="C14:V14"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="E21:L22"/>
-    <mergeCell ref="O21:V22"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/01_document/画面定義書.xlsx
+++ b/01_document/画面定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン(PC・携帯共通)" sheetId="5" r:id="rId1"/>
@@ -752,11 +752,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>←新規のパスワードも登録する</t>
+    <t>←新規のパスワードも登録する。生年月日も登録する。</t>
     <rPh sb="1" eb="3">
       <t>シンキ</t>
     </rPh>
     <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -7013,7 +7022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
   <sheetData>
@@ -10800,7 +10809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
   <sheetData>
